--- a/Fase 1/DocumentosProyecto/Planilla de Requerimientos.xlsx
+++ b/Fase 1/DocumentosProyecto/Planilla de Requerimientos.xlsx
@@ -8,19 +8,19 @@
     <sheet state="visible" name="Ejemplo" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Aplicación Principal'!$A$1:$F$21</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Aplicación Principal'!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="9amQqhwUmhPcJRTsQ/W8G7A+RnZG6r26nG4CeypS3Hw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="tD7q4HyTfSbCdOms5B/Mj5yEl9cMMRqTnFBe6mKzK8g="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
   <si>
     <t>[R-N°]</t>
   </si>
@@ -50,208 +50,247 @@
     <t>Funcional</t>
   </si>
   <si>
+    <t>Administrador, Docente</t>
+  </si>
+  <si>
+    <t>El administrador crea la cuenta de un docente, rellenando el formulario</t>
+  </si>
+  <si>
+    <t>Solicitado</t>
+  </si>
+  <si>
+    <t>R.2</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Ingresa su cuenta con información correspondiente para entrar a su sesión.</t>
+  </si>
+  <si>
+    <t>R.3</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Una vez iniciada logeado, puede cerrar su sesión.</t>
+  </si>
+  <si>
+    <t>R.4</t>
+  </si>
+  <si>
+    <t>Ver y gestionar cursos</t>
+  </si>
+  <si>
+    <t>Una vez iniciada logeado, puede ingresar a su menú de gestión de cursos, donde se listan estos.</t>
+  </si>
+  <si>
+    <t>R.5</t>
+  </si>
+  <si>
+    <t>Subir cursos</t>
+  </si>
+  <si>
+    <t>Puede subir un curso para habilitarlo para estudiantes.</t>
+  </si>
+  <si>
+    <t>R.6</t>
+  </si>
+  <si>
+    <t>Borrar cursos</t>
+  </si>
+  <si>
+    <t>Puede borrar un curso que ya esté subido, en caso de algún error.</t>
+  </si>
+  <si>
+    <t>R.7</t>
+  </si>
+  <si>
+    <t>Modificar información del curso</t>
+  </si>
+  <si>
+    <t>Puede cambiar información de un curso ya subido.</t>
+  </si>
+  <si>
+    <t>R.8</t>
+  </si>
+  <si>
+    <t>Finalizar curso</t>
+  </si>
+  <si>
+    <t>Puede finalizar un curso luego de colocar las notas de los estudiantes.</t>
+  </si>
+  <si>
+    <t>R.9</t>
+  </si>
+  <si>
+    <t>Crear examen</t>
+  </si>
+  <si>
+    <t>Crea un examen para evaluar a los estudiantes de un curso.</t>
+  </si>
+  <si>
+    <t>R.10</t>
+  </si>
+  <si>
+    <t>Gestionar cuentas de usuarios</t>
+  </si>
+  <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>El administrador crea la cuenta de un docente, rellenando el formulario</t>
-  </si>
-  <si>
-    <t>Solicitado</t>
-  </si>
-  <si>
-    <t>R.2</t>
-  </si>
-  <si>
-    <t>Iniciar sesión</t>
-  </si>
-  <si>
-    <t>Docente</t>
-  </si>
-  <si>
-    <t>Ingresa su cuenta con información correspondiente para entrar a su sesión.</t>
-  </si>
-  <si>
-    <t>R.3</t>
-  </si>
-  <si>
-    <t>Cerrar sesión</t>
-  </si>
-  <si>
-    <t>Una vez iniciada logeado, puede cerrar su sesión.</t>
-  </si>
-  <si>
-    <t>R.4</t>
-  </si>
-  <si>
-    <t>Gestionar cursos</t>
-  </si>
-  <si>
-    <t>Una vez iniciada logeado, puede ingresar a su menú de gestión de cursos, donde se listan estos.</t>
-  </si>
-  <si>
-    <t>R.5</t>
-  </si>
-  <si>
-    <t>Subir cursos</t>
-  </si>
-  <si>
-    <t>Puede subir un curso para habilitarlo para estudiantes.</t>
-  </si>
-  <si>
-    <t>R.6</t>
-  </si>
-  <si>
-    <t>Borrar cursos</t>
-  </si>
-  <si>
-    <t>Puede borrar un curso que ya esté subido, en caso de algún error.</t>
-  </si>
-  <si>
-    <t>R.7</t>
-  </si>
-  <si>
-    <t>Modificar información del curso</t>
-  </si>
-  <si>
-    <t>Puede cambiar información de un curso ya subido.</t>
-  </si>
-  <si>
-    <t>R.8</t>
-  </si>
-  <si>
-    <t>Finalizar curso</t>
-  </si>
-  <si>
-    <t>Puede finalizar un curso luego de colocar las notas de los estudiantes.</t>
-  </si>
-  <si>
-    <t>R.9</t>
-  </si>
-  <si>
-    <t>Crear examen</t>
-  </si>
-  <si>
-    <t>Crea un examen para evaluar a los estudiantes de un curso.</t>
-  </si>
-  <si>
-    <t>R.10</t>
-  </si>
-  <si>
-    <t>Evaluar calificación</t>
+    <t>Puede ver un menú donde se listan los docentes.</t>
+  </si>
+  <si>
+    <t>R.11</t>
+  </si>
+  <si>
+    <t>Modificar usuario</t>
+  </si>
+  <si>
+    <t>Puede modificar la información de los usuarios mediante un formulario.</t>
+  </si>
+  <si>
+    <t>R.12</t>
+  </si>
+  <si>
+    <t>Informe de notas XLS</t>
+  </si>
+  <si>
+    <t>Genera un informe de notas en XLS listando las calificaciones de los estudiantes.</t>
+  </si>
+  <si>
+    <t>R.13</t>
+  </si>
+  <si>
+    <t>Certificado de curso PDF</t>
+  </si>
+  <si>
+    <t>Genera un certificado a los alumnos que aprobaron el curso.</t>
+  </si>
+  <si>
+    <t>R.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificación </t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>El docente realiza un envío a cada estudiante con los certificados vía e-mail.</t>
+  </si>
+  <si>
+    <t>R.15</t>
+  </si>
+  <si>
+    <t>Validación de campos</t>
+  </si>
+  <si>
+    <t>Los campos de un formulario se validan para que el formato e información sean correctos.</t>
+  </si>
+  <si>
+    <t>R.16</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Se solicita un correo electrónico para cambiar la contraseña.</t>
+  </si>
+  <si>
+    <t>R.17</t>
+  </si>
+  <si>
+    <t>Creación de examen final</t>
+  </si>
+  <si>
+    <t>Crea un examen para certificar a los estudiantes de un curso.</t>
+  </si>
+  <si>
+    <t>R.18</t>
+  </si>
+  <si>
+    <t>No Funcional</t>
+  </si>
+  <si>
+    <t>R.19</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Ingresa su cuenta correspondiente para entrar a su sesión.</t>
+  </si>
+  <si>
+    <t>Una vez iniciada su sesión, puede cerrarla con un botón</t>
+  </si>
+  <si>
+    <t>Ver cursos</t>
+  </si>
+  <si>
+    <t>Puede ver un listado de los cursos que puede realizar.</t>
+  </si>
+  <si>
+    <t>Ver cursos tomados</t>
+  </si>
+  <si>
+    <t>Puede ver los cursos que ha tomado para realizarlos.</t>
+  </si>
+  <si>
+    <t>Realizar cursos</t>
+  </si>
+  <si>
+    <t>Selecciona un curso y lo realiza.</t>
+  </si>
+  <si>
+    <t>Realizar examen</t>
+  </si>
+  <si>
+    <t>Al final del curso o durante este, realiza un examen para obtener una calificación y/o certificado.</t>
+  </si>
+  <si>
+    <t>Ver calificaciones</t>
+  </si>
+  <si>
+    <t>Puede ver su calificación una vez el docente desde la otra APP la suba.</t>
+  </si>
+  <si>
+    <t>Ver certificados</t>
+  </si>
+  <si>
+    <t>Puede ver sus certificados de cursos realizados previamente.</t>
+  </si>
+  <si>
+    <t>Ver progreso del curso</t>
+  </si>
+  <si>
+    <t>Visualiza en porcentaje cuánto lleva del curso.</t>
+  </si>
+  <si>
+    <t>Docente, Administrador</t>
+  </si>
+  <si>
+    <t>Calcular calificación</t>
   </si>
   <si>
     <t>Coloca una calificación a un examen para cada estudiante.</t>
   </si>
   <si>
-    <t>R.11</t>
-  </si>
-  <si>
-    <t>Gestionar cuentas de usuarios</t>
-  </si>
-  <si>
-    <t>Puede ver un menú donde se listan los docentes.</t>
-  </si>
-  <si>
-    <t>R.12</t>
-  </si>
-  <si>
-    <t>Modificar usuario</t>
-  </si>
-  <si>
-    <t>Puede modificar la información de los usuarios mediante un formulario.</t>
-  </si>
-  <si>
-    <t>R.13</t>
-  </si>
-  <si>
-    <t>Informe de notas XLS</t>
-  </si>
-  <si>
-    <t>Genera un informe de notas en XLS listando las calificaciones de los estudiantes.</t>
-  </si>
-  <si>
-    <t>R.14</t>
-  </si>
-  <si>
-    <t>Certificado de curso PDF</t>
-  </si>
-  <si>
-    <t>Genera un certificado a los alumnos que aprobaron el curso.</t>
-  </si>
-  <si>
-    <t>R.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notificación </t>
-  </si>
-  <si>
-    <t>El docente realiza un envío a cada estudiante con los certificados vía e-mail.</t>
-  </si>
-  <si>
-    <t>R.16</t>
-  </si>
-  <si>
-    <t>Validación de campos</t>
-  </si>
-  <si>
-    <t>Docente, Administrador</t>
-  </si>
-  <si>
-    <t>Los campos de un formulario se validan para que el formato e información sean correctos.</t>
-  </si>
-  <si>
-    <t>R.17</t>
-  </si>
-  <si>
-    <t>No Funcional</t>
-  </si>
-  <si>
-    <t>R.18</t>
-  </si>
-  <si>
-    <t>R.19</t>
-  </si>
-  <si>
-    <t>R.20</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>Ingresa su cuenta correspondiente para entrar a su sesión.</t>
-  </si>
-  <si>
-    <t>Una vez iniciada su sesión, puede cerrarla con un botón</t>
-  </si>
-  <si>
-    <t>Ver cursos</t>
-  </si>
-  <si>
-    <t>Puede ver un listado de los cursos que puede realizar.</t>
-  </si>
-  <si>
-    <t>Realizar cursos</t>
-  </si>
-  <si>
-    <t>Selecciona un curso y lo realiza.</t>
-  </si>
-  <si>
-    <t>Realizar examen</t>
-  </si>
-  <si>
-    <t>Al final del curso, realiza un examen para obtener una calificación.</t>
-  </si>
-  <si>
-    <t>Ver calificaciones</t>
-  </si>
-  <si>
-    <t>Puede ver su calificación una vez el docente desde la otra APP la suba.</t>
-  </si>
-  <si>
-    <t>Ver progreso del curso</t>
-  </si>
-  <si>
-    <t>Visualiza en porcentaje cuánto lleva del curso.</t>
+    <t>Formato calificación</t>
+  </si>
+  <si>
+    <t>Las calificaciones se muestran con puntaje de 1.0 a 7.0.</t>
+  </si>
+  <si>
+    <t>Formato progreso</t>
+  </si>
+  <si>
+    <t>El formato del progreso del curso será en porcentajes.</t>
   </si>
   <si>
     <t>Actores Relacionados</t>
@@ -408,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -431,13 +470,16 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -457,8 +499,8 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -942,10 +984,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>11</v>
@@ -953,19 +995,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
@@ -973,19 +1015,19 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>11</v>
@@ -993,10 +1035,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>8</v>
@@ -1005,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
@@ -1013,2992 +1055,2986 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>56</v>
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7"/>
-    </row>
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="E24" s="12"/>
+    </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="E26" s="11"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="E28" s="11"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="E29" s="11"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="E30" s="11"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="E31" s="11"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="E32" s="11"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="E33" s="11"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="E34" s="11"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="E35" s="11"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="E36" s="11"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="E37" s="11"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="E38" s="11"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="E39" s="11"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="E40" s="11"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="E41" s="11"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="E43" s="11"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="E44" s="11"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="E45" s="11"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="E46" s="11"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="E47" s="11"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="E48" s="11"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="E49" s="11"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="E50" s="11"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="E51" s="11"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="E52" s="11"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="E53" s="11"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="E54" s="11"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="E55" s="11"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="E56" s="11"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="E57" s="11"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="E58" s="11"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="E59" s="11"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="E60" s="11"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="E61" s="11"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="E62" s="11"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="E63" s="11"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="E64" s="11"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="E65" s="11"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="E66" s="11"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="E67" s="11"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="E68" s="11"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="E69" s="11"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="E70" s="11"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="E71" s="11"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="E72" s="11"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="E73" s="11"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="E74" s="11"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="E75" s="11"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="E76" s="11"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="E77" s="11"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="E78" s="11"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="E79" s="11"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="E80" s="11"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="E81" s="11"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="E82" s="11"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="E83" s="11"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="E84" s="11"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="E85" s="11"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="E86" s="11"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="E87" s="11"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="E88" s="11"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="E89" s="11"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="E90" s="11"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="E91" s="11"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="E92" s="11"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="E93" s="11"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="E94" s="11"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="E95" s="11"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="E96" s="11"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="E97" s="11"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="E98" s="11"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="E99" s="11"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="E100" s="11"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="E101" s="11"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="E102" s="11"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="E103" s="11"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="E104" s="11"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="E105" s="11"/>
+      <c r="E105" s="12"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="E106" s="11"/>
+      <c r="E106" s="12"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="E107" s="11"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="E108" s="11"/>
+      <c r="E108" s="12"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="E109" s="11"/>
+      <c r="E109" s="12"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="E110" s="11"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="E111" s="11"/>
+      <c r="E111" s="12"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="E112" s="11"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="E113" s="11"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="E114" s="11"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="E115" s="11"/>
+      <c r="E115" s="12"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="E116" s="11"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="E117" s="11"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="E118" s="11"/>
+      <c r="E118" s="12"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="E119" s="11"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="E120" s="11"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="E121" s="11"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="E122" s="11"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="E123" s="11"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="E124" s="11"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="E125" s="11"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="E126" s="11"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="E127" s="11"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="E128" s="11"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="E129" s="11"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="E130" s="11"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="E131" s="11"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="E132" s="11"/>
+      <c r="E132" s="12"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="E133" s="11"/>
+      <c r="E133" s="12"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="E134" s="11"/>
+      <c r="E134" s="12"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="E135" s="11"/>
+      <c r="E135" s="12"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="E136" s="11"/>
+      <c r="E136" s="12"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="E137" s="11"/>
+      <c r="E137" s="12"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="E138" s="11"/>
+      <c r="E138" s="12"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="E139" s="11"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="E140" s="11"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="E141" s="11"/>
+      <c r="E141" s="12"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="E142" s="11"/>
+      <c r="E142" s="12"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="E143" s="11"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="E144" s="11"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="E145" s="11"/>
+      <c r="E145" s="12"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="E146" s="11"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="E147" s="11"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="E148" s="11"/>
+      <c r="E148" s="12"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="E149" s="11"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="E150" s="11"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="E151" s="11"/>
+      <c r="E151" s="12"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="E152" s="11"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="E153" s="11"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="E154" s="11"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="E155" s="11"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="E156" s="11"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="E157" s="11"/>
+      <c r="E157" s="12"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="E158" s="11"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="E159" s="11"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="E160" s="11"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="E161" s="11"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="E162" s="11"/>
+      <c r="E162" s="12"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="E163" s="11"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="E164" s="11"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="E165" s="11"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="E166" s="11"/>
+      <c r="E166" s="12"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="E167" s="11"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="E168" s="11"/>
+      <c r="E168" s="12"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="E169" s="11"/>
+      <c r="E169" s="12"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="E170" s="11"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="E171" s="11"/>
+      <c r="E171" s="12"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="E172" s="11"/>
+      <c r="E172" s="12"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="E173" s="11"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="E174" s="11"/>
+      <c r="E174" s="12"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="E175" s="11"/>
+      <c r="E175" s="12"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="E176" s="11"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="E177" s="11"/>
+      <c r="E177" s="12"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="E178" s="11"/>
+      <c r="E178" s="12"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="E179" s="11"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="E180" s="11"/>
+      <c r="E180" s="12"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="E181" s="11"/>
+      <c r="E181" s="12"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="E182" s="11"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="E183" s="11"/>
+      <c r="E183" s="12"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="E184" s="11"/>
+      <c r="E184" s="12"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="E185" s="11"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="E186" s="11"/>
+      <c r="E186" s="12"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="E187" s="11"/>
+      <c r="E187" s="12"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="E188" s="11"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="E189" s="11"/>
+      <c r="E189" s="12"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="E190" s="11"/>
+      <c r="E190" s="12"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="E191" s="11"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="E192" s="11"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="E193" s="11"/>
+      <c r="E193" s="12"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="E194" s="11"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="E195" s="11"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="E196" s="11"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="E197" s="11"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="E198" s="11"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="E199" s="11"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="E200" s="11"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="E201" s="11"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="E202" s="11"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="E203" s="11"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="E204" s="11"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="E205" s="11"/>
+      <c r="E205" s="12"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="E206" s="11"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="E207" s="11"/>
+      <c r="E207" s="12"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="E208" s="11"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="E209" s="11"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="E210" s="11"/>
+      <c r="E210" s="12"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="E211" s="11"/>
+      <c r="E211" s="12"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="E212" s="11"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="E213" s="11"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="E214" s="11"/>
+      <c r="E214" s="12"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="E215" s="11"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="E216" s="11"/>
+      <c r="E216" s="12"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="E217" s="11"/>
+      <c r="E217" s="12"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="E218" s="11"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="E219" s="11"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="E220" s="11"/>
+      <c r="E220" s="12"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="E221" s="11"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="E222" s="11"/>
+      <c r="E222" s="12"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="E223" s="11"/>
+      <c r="E223" s="12"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="E224" s="11"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="E225" s="11"/>
+      <c r="E225" s="12"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="E226" s="11"/>
+      <c r="E226" s="12"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="E227" s="11"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="E228" s="11"/>
+      <c r="E228" s="12"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="E229" s="11"/>
+      <c r="E229" s="12"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="E230" s="11"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="E231" s="11"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="E232" s="11"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="E233" s="11"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="E234" s="11"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="E235" s="11"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="E236" s="11"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="E237" s="11"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="E238" s="11"/>
+      <c r="E238" s="12"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="E239" s="11"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="E240" s="11"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="E241" s="11"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="E242" s="11"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="E243" s="11"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="E244" s="11"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="E245" s="11"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="E246" s="11"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="E247" s="11"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="E248" s="11"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="E249" s="11"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="E250" s="11"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="E251" s="11"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="E252" s="11"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="E253" s="11"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="E254" s="11"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="E255" s="11"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="E256" s="11"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="E257" s="11"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="E258" s="11"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="E259" s="11"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="E260" s="11"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="E261" s="11"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="E262" s="11"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="E263" s="11"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="E264" s="11"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="E265" s="11"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="E266" s="11"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="E267" s="11"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="E268" s="11"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="E269" s="11"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="E270" s="11"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="E271" s="11"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="E272" s="11"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="E273" s="11"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="E274" s="11"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="E275" s="11"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="E276" s="11"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="E277" s="11"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="E278" s="11"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="E279" s="11"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="E280" s="11"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="E281" s="11"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="E282" s="11"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="E283" s="11"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="E284" s="11"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="E285" s="11"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="E286" s="11"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="E287" s="11"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="E288" s="11"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="E289" s="11"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="E290" s="11"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="E291" s="11"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="E292" s="11"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="E293" s="11"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="E294" s="11"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="E295" s="11"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="E296" s="11"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="E297" s="11"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="E298" s="11"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="E299" s="11"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="E300" s="11"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="E301" s="11"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="E302" s="11"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="E303" s="11"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="E304" s="11"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="E305" s="11"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="E306" s="11"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="E307" s="11"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="E308" s="11"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="E309" s="11"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="E310" s="11"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="E311" s="11"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="E312" s="11"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="E313" s="11"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="E314" s="11"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="E315" s="11"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="E316" s="11"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="E317" s="11"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="E318" s="11"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="E319" s="11"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="E320" s="11"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="E321" s="11"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="E322" s="11"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="E323" s="11"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="E324" s="11"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="E325" s="11"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="E326" s="11"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="E327" s="11"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="E328" s="11"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="E329" s="11"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="E330" s="11"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="E331" s="11"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="E332" s="11"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="E333" s="11"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="E334" s="11"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="E335" s="11"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="E336" s="11"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="E337" s="11"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="E338" s="11"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="E339" s="11"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="E340" s="11"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="E341" s="11"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="E342" s="11"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="E343" s="11"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="E344" s="11"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="E345" s="11"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="E346" s="11"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="E347" s="11"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="E348" s="11"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="E349" s="11"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="E350" s="11"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="E351" s="11"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="E352" s="11"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="E353" s="11"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="E354" s="11"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="E355" s="11"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="E356" s="11"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="E357" s="11"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="E358" s="11"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="E359" s="11"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="E360" s="11"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="E361" s="11"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="E362" s="11"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="E363" s="11"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="E364" s="11"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="E365" s="11"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="E366" s="11"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="E367" s="11"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="E368" s="11"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="E369" s="11"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="E370" s="11"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="E371" s="11"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="E372" s="11"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="E373" s="11"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="E374" s="11"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="E375" s="11"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="E376" s="11"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="E377" s="11"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="E378" s="11"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="E379" s="11"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="E380" s="11"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="E381" s="11"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="E382" s="11"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="E383" s="11"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="E384" s="11"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="E385" s="11"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="E386" s="11"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="E387" s="11"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="E388" s="11"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="E389" s="11"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="E390" s="11"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="E391" s="11"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="E392" s="11"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="E393" s="11"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="E394" s="11"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="E395" s="11"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="E396" s="11"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="E397" s="11"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="E398" s="11"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="E399" s="11"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="E400" s="11"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="E401" s="11"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="E402" s="11"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="E403" s="11"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="E404" s="11"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="E405" s="11"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="E406" s="11"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="E407" s="11"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="E408" s="11"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="E409" s="11"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="E410" s="11"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="E411" s="11"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="E412" s="11"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="E413" s="11"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="E414" s="11"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="E415" s="11"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="E416" s="11"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="E417" s="11"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="E418" s="11"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="E419" s="11"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="E420" s="11"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="E421" s="11"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="E422" s="11"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="E423" s="11"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="E424" s="11"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="E425" s="11"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="E426" s="11"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="E427" s="11"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="E428" s="11"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="E429" s="11"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="E430" s="11"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="E431" s="11"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="E432" s="11"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="E433" s="11"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="E434" s="11"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="E435" s="11"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="E436" s="11"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="E437" s="11"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="E438" s="11"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="E439" s="11"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="E440" s="11"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="E441" s="11"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="E442" s="11"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="E443" s="11"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="E444" s="11"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="E445" s="11"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="E446" s="11"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="E447" s="11"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="E448" s="11"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="E449" s="11"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="E450" s="11"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="E451" s="11"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="E452" s="11"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="E453" s="11"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="E454" s="11"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="E455" s="11"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="E456" s="11"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="E457" s="11"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="E458" s="11"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="E459" s="11"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="E460" s="11"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="E461" s="11"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="E462" s="11"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="E463" s="11"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="E464" s="11"/>
+      <c r="E464" s="12"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="E465" s="11"/>
+      <c r="E465" s="12"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="E466" s="11"/>
+      <c r="E466" s="12"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="E467" s="11"/>
+      <c r="E467" s="12"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="E468" s="11"/>
+      <c r="E468" s="12"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="E469" s="11"/>
+      <c r="E469" s="12"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="E470" s="11"/>
+      <c r="E470" s="12"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="E471" s="11"/>
+      <c r="E471" s="12"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="E472" s="11"/>
+      <c r="E472" s="12"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="E473" s="11"/>
+      <c r="E473" s="12"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="E474" s="11"/>
+      <c r="E474" s="12"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="E475" s="11"/>
+      <c r="E475" s="12"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="E476" s="11"/>
+      <c r="E476" s="12"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="E477" s="11"/>
+      <c r="E477" s="12"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="E478" s="11"/>
+      <c r="E478" s="12"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="E479" s="11"/>
+      <c r="E479" s="12"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="E480" s="11"/>
+      <c r="E480" s="12"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="E481" s="11"/>
+      <c r="E481" s="12"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="E482" s="11"/>
+      <c r="E482" s="12"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="E483" s="11"/>
+      <c r="E483" s="12"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="E484" s="11"/>
+      <c r="E484" s="12"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="E485" s="11"/>
+      <c r="E485" s="12"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="E486" s="11"/>
+      <c r="E486" s="12"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="E487" s="11"/>
+      <c r="E487" s="12"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="E488" s="11"/>
+      <c r="E488" s="12"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="E489" s="11"/>
+      <c r="E489" s="12"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="E490" s="11"/>
+      <c r="E490" s="12"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="E491" s="11"/>
+      <c r="E491" s="12"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="E492" s="11"/>
+      <c r="E492" s="12"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="E493" s="11"/>
+      <c r="E493" s="12"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="E494" s="11"/>
+      <c r="E494" s="12"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="E495" s="11"/>
+      <c r="E495" s="12"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="E496" s="11"/>
+      <c r="E496" s="12"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="E497" s="11"/>
+      <c r="E497" s="12"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="E498" s="11"/>
+      <c r="E498" s="12"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="E499" s="11"/>
+      <c r="E499" s="12"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="E500" s="11"/>
+      <c r="E500" s="12"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="E501" s="11"/>
+      <c r="E501" s="12"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="E502" s="11"/>
+      <c r="E502" s="12"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="E503" s="11"/>
+      <c r="E503" s="12"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="E504" s="11"/>
+      <c r="E504" s="12"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="E505" s="11"/>
+      <c r="E505" s="12"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="E506" s="11"/>
+      <c r="E506" s="12"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="E507" s="11"/>
+      <c r="E507" s="12"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="E508" s="11"/>
+      <c r="E508" s="12"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="E509" s="11"/>
+      <c r="E509" s="12"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="E510" s="11"/>
+      <c r="E510" s="12"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="E511" s="11"/>
+      <c r="E511" s="12"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="E512" s="11"/>
+      <c r="E512" s="12"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="E513" s="11"/>
+      <c r="E513" s="12"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="E514" s="11"/>
+      <c r="E514" s="12"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="E515" s="11"/>
+      <c r="E515" s="12"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="E516" s="11"/>
+      <c r="E516" s="12"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="E517" s="11"/>
+      <c r="E517" s="12"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="E518" s="11"/>
+      <c r="E518" s="12"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="E519" s="11"/>
+      <c r="E519" s="12"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="E520" s="11"/>
+      <c r="E520" s="12"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="E521" s="11"/>
+      <c r="E521" s="12"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="E522" s="11"/>
+      <c r="E522" s="12"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="E523" s="11"/>
+      <c r="E523" s="12"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="E524" s="11"/>
+      <c r="E524" s="12"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="E525" s="11"/>
+      <c r="E525" s="12"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="E526" s="11"/>
+      <c r="E526" s="12"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="E527" s="11"/>
+      <c r="E527" s="12"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="E528" s="11"/>
+      <c r="E528" s="12"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="E529" s="11"/>
+      <c r="E529" s="12"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="E530" s="11"/>
+      <c r="E530" s="12"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="E531" s="11"/>
+      <c r="E531" s="12"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="E532" s="11"/>
+      <c r="E532" s="12"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="E533" s="11"/>
+      <c r="E533" s="12"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="E534" s="11"/>
+      <c r="E534" s="12"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="E535" s="11"/>
+      <c r="E535" s="12"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="E536" s="11"/>
+      <c r="E536" s="12"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="E537" s="11"/>
+      <c r="E537" s="12"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="E538" s="11"/>
+      <c r="E538" s="12"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="E539" s="11"/>
+      <c r="E539" s="12"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="E540" s="11"/>
+      <c r="E540" s="12"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="E541" s="11"/>
+      <c r="E541" s="12"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="E542" s="11"/>
+      <c r="E542" s="12"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="E543" s="11"/>
+      <c r="E543" s="12"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="E544" s="11"/>
+      <c r="E544" s="12"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="E545" s="11"/>
+      <c r="E545" s="12"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="E546" s="11"/>
+      <c r="E546" s="12"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="E547" s="11"/>
+      <c r="E547" s="12"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="E548" s="11"/>
+      <c r="E548" s="12"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="E549" s="11"/>
+      <c r="E549" s="12"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="E550" s="11"/>
+      <c r="E550" s="12"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="E551" s="11"/>
+      <c r="E551" s="12"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="E552" s="11"/>
+      <c r="E552" s="12"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="E553" s="11"/>
+      <c r="E553" s="12"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="E554" s="11"/>
+      <c r="E554" s="12"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="E555" s="11"/>
+      <c r="E555" s="12"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="E556" s="11"/>
+      <c r="E556" s="12"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="E557" s="11"/>
+      <c r="E557" s="12"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="E558" s="11"/>
+      <c r="E558" s="12"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="E559" s="11"/>
+      <c r="E559" s="12"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="E560" s="11"/>
+      <c r="E560" s="12"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="E561" s="11"/>
+      <c r="E561" s="12"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="E562" s="11"/>
+      <c r="E562" s="12"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="E563" s="11"/>
+      <c r="E563" s="12"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="E564" s="11"/>
+      <c r="E564" s="12"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="E565" s="11"/>
+      <c r="E565" s="12"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="E566" s="11"/>
+      <c r="E566" s="12"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="E567" s="11"/>
+      <c r="E567" s="12"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="E568" s="11"/>
+      <c r="E568" s="12"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="E569" s="11"/>
+      <c r="E569" s="12"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="E570" s="11"/>
+      <c r="E570" s="12"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="E571" s="11"/>
+      <c r="E571" s="12"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="E572" s="11"/>
+      <c r="E572" s="12"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="E573" s="11"/>
+      <c r="E573" s="12"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="E574" s="11"/>
+      <c r="E574" s="12"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="E575" s="11"/>
+      <c r="E575" s="12"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="E576" s="11"/>
+      <c r="E576" s="12"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="E577" s="11"/>
+      <c r="E577" s="12"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="E578" s="11"/>
+      <c r="E578" s="12"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="E579" s="11"/>
+      <c r="E579" s="12"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="E580" s="11"/>
+      <c r="E580" s="12"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="E581" s="11"/>
+      <c r="E581" s="12"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="E582" s="11"/>
+      <c r="E582" s="12"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="E583" s="11"/>
+      <c r="E583" s="12"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="E584" s="11"/>
+      <c r="E584" s="12"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="E585" s="11"/>
+      <c r="E585" s="12"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="E586" s="11"/>
+      <c r="E586" s="12"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="E587" s="11"/>
+      <c r="E587" s="12"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="E588" s="11"/>
+      <c r="E588" s="12"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="E589" s="11"/>
+      <c r="E589" s="12"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="E590" s="11"/>
+      <c r="E590" s="12"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="E591" s="11"/>
+      <c r="E591" s="12"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="E592" s="11"/>
+      <c r="E592" s="12"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="E593" s="11"/>
+      <c r="E593" s="12"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="E594" s="11"/>
+      <c r="E594" s="12"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="E595" s="11"/>
+      <c r="E595" s="12"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="E596" s="11"/>
+      <c r="E596" s="12"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="E597" s="11"/>
+      <c r="E597" s="12"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="E598" s="11"/>
+      <c r="E598" s="12"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="E599" s="11"/>
+      <c r="E599" s="12"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="E600" s="11"/>
+      <c r="E600" s="12"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="E601" s="11"/>
+      <c r="E601" s="12"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="E602" s="11"/>
+      <c r="E602" s="12"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="E603" s="11"/>
+      <c r="E603" s="12"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="E604" s="11"/>
+      <c r="E604" s="12"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="E605" s="11"/>
+      <c r="E605" s="12"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="E606" s="11"/>
+      <c r="E606" s="12"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="E607" s="11"/>
+      <c r="E607" s="12"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="E608" s="11"/>
+      <c r="E608" s="12"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="E609" s="11"/>
+      <c r="E609" s="12"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="E610" s="11"/>
+      <c r="E610" s="12"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="E611" s="11"/>
+      <c r="E611" s="12"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="E612" s="11"/>
+      <c r="E612" s="12"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="E613" s="11"/>
+      <c r="E613" s="12"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="E614" s="11"/>
+      <c r="E614" s="12"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="E615" s="11"/>
+      <c r="E615" s="12"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="E616" s="11"/>
+      <c r="E616" s="12"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="E617" s="11"/>
+      <c r="E617" s="12"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="E618" s="11"/>
+      <c r="E618" s="12"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="E619" s="11"/>
+      <c r="E619" s="12"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="E620" s="11"/>
+      <c r="E620" s="12"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="E621" s="11"/>
+      <c r="E621" s="12"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="E622" s="11"/>
+      <c r="E622" s="12"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="E623" s="11"/>
+      <c r="E623" s="12"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="E624" s="11"/>
+      <c r="E624" s="12"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="E625" s="11"/>
+      <c r="E625" s="12"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="E626" s="11"/>
+      <c r="E626" s="12"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="E627" s="11"/>
+      <c r="E627" s="12"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="E628" s="11"/>
+      <c r="E628" s="12"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="E629" s="11"/>
+      <c r="E629" s="12"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="E630" s="11"/>
+      <c r="E630" s="12"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="E631" s="11"/>
+      <c r="E631" s="12"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="E632" s="11"/>
+      <c r="E632" s="12"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="E633" s="11"/>
+      <c r="E633" s="12"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="E634" s="11"/>
+      <c r="E634" s="12"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="E635" s="11"/>
+      <c r="E635" s="12"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="E636" s="11"/>
+      <c r="E636" s="12"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="E637" s="11"/>
+      <c r="E637" s="12"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="E638" s="11"/>
+      <c r="E638" s="12"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="E639" s="11"/>
+      <c r="E639" s="12"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="E640" s="11"/>
+      <c r="E640" s="12"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="E641" s="11"/>
+      <c r="E641" s="12"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="E642" s="11"/>
+      <c r="E642" s="12"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="E643" s="11"/>
+      <c r="E643" s="12"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="E644" s="11"/>
+      <c r="E644" s="12"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="E645" s="11"/>
+      <c r="E645" s="12"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="E646" s="11"/>
+      <c r="E646" s="12"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="E647" s="11"/>
+      <c r="E647" s="12"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="E648" s="11"/>
+      <c r="E648" s="12"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="E649" s="11"/>
+      <c r="E649" s="12"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="E650" s="11"/>
+      <c r="E650" s="12"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="E651" s="11"/>
+      <c r="E651" s="12"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="E652" s="11"/>
+      <c r="E652" s="12"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="E653" s="11"/>
+      <c r="E653" s="12"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="E654" s="11"/>
+      <c r="E654" s="12"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="E655" s="11"/>
+      <c r="E655" s="12"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="E656" s="11"/>
+      <c r="E656" s="12"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="E657" s="11"/>
+      <c r="E657" s="12"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="E658" s="11"/>
+      <c r="E658" s="12"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="E659" s="11"/>
+      <c r="E659" s="12"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="E660" s="11"/>
+      <c r="E660" s="12"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="E661" s="11"/>
+      <c r="E661" s="12"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="E662" s="11"/>
+      <c r="E662" s="12"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="E663" s="11"/>
+      <c r="E663" s="12"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="E664" s="11"/>
+      <c r="E664" s="12"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="E665" s="11"/>
+      <c r="E665" s="12"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="E666" s="11"/>
+      <c r="E666" s="12"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="E667" s="11"/>
+      <c r="E667" s="12"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="E668" s="11"/>
+      <c r="E668" s="12"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="E669" s="11"/>
+      <c r="E669" s="12"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="E670" s="11"/>
+      <c r="E670" s="12"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="E671" s="11"/>
+      <c r="E671" s="12"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="E672" s="11"/>
+      <c r="E672" s="12"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="E673" s="11"/>
+      <c r="E673" s="12"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="E674" s="11"/>
+      <c r="E674" s="12"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="E675" s="11"/>
+      <c r="E675" s="12"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="E676" s="11"/>
+      <c r="E676" s="12"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="E677" s="11"/>
+      <c r="E677" s="12"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="E678" s="11"/>
+      <c r="E678" s="12"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="E679" s="11"/>
+      <c r="E679" s="12"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="E680" s="11"/>
+      <c r="E680" s="12"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="E681" s="11"/>
+      <c r="E681" s="12"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="E682" s="11"/>
+      <c r="E682" s="12"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="E683" s="11"/>
+      <c r="E683" s="12"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="E684" s="11"/>
+      <c r="E684" s="12"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="E685" s="11"/>
+      <c r="E685" s="12"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="E686" s="11"/>
+      <c r="E686" s="12"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="E687" s="11"/>
+      <c r="E687" s="12"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="E688" s="11"/>
+      <c r="E688" s="12"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="E689" s="11"/>
+      <c r="E689" s="12"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="E690" s="11"/>
+      <c r="E690" s="12"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="E691" s="11"/>
+      <c r="E691" s="12"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="E692" s="11"/>
+      <c r="E692" s="12"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="E693" s="11"/>
+      <c r="E693" s="12"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="E694" s="11"/>
+      <c r="E694" s="12"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="E695" s="11"/>
+      <c r="E695" s="12"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="E696" s="11"/>
+      <c r="E696" s="12"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="E697" s="11"/>
+      <c r="E697" s="12"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="E698" s="11"/>
+      <c r="E698" s="12"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="E699" s="11"/>
+      <c r="E699" s="12"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="E700" s="11"/>
+      <c r="E700" s="12"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="E701" s="11"/>
+      <c r="E701" s="12"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="E702" s="11"/>
+      <c r="E702" s="12"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="E703" s="11"/>
+      <c r="E703" s="12"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="E704" s="11"/>
+      <c r="E704" s="12"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="E705" s="11"/>
+      <c r="E705" s="12"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="E706" s="11"/>
+      <c r="E706" s="12"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="E707" s="11"/>
+      <c r="E707" s="12"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="E708" s="11"/>
+      <c r="E708" s="12"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="E709" s="11"/>
+      <c r="E709" s="12"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="E710" s="11"/>
+      <c r="E710" s="12"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="E711" s="11"/>
+      <c r="E711" s="12"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="E712" s="11"/>
+      <c r="E712" s="12"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="E713" s="11"/>
+      <c r="E713" s="12"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="E714" s="11"/>
+      <c r="E714" s="12"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="E715" s="11"/>
+      <c r="E715" s="12"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="E716" s="11"/>
+      <c r="E716" s="12"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="E717" s="11"/>
+      <c r="E717" s="12"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="E718" s="11"/>
+      <c r="E718" s="12"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="E719" s="11"/>
+      <c r="E719" s="12"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="E720" s="11"/>
+      <c r="E720" s="12"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="E721" s="11"/>
+      <c r="E721" s="12"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="E722" s="11"/>
+      <c r="E722" s="12"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="E723" s="11"/>
+      <c r="E723" s="12"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="E724" s="11"/>
+      <c r="E724" s="12"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="E725" s="11"/>
+      <c r="E725" s="12"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="E726" s="11"/>
+      <c r="E726" s="12"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="E727" s="11"/>
+      <c r="E727" s="12"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="E728" s="11"/>
+      <c r="E728" s="12"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="E729" s="11"/>
+      <c r="E729" s="12"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="E730" s="11"/>
+      <c r="E730" s="12"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="E731" s="11"/>
+      <c r="E731" s="12"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="E732" s="11"/>
+      <c r="E732" s="12"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="E733" s="11"/>
+      <c r="E733" s="12"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="E734" s="11"/>
+      <c r="E734" s="12"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="E735" s="11"/>
+      <c r="E735" s="12"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="E736" s="11"/>
+      <c r="E736" s="12"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="E737" s="11"/>
+      <c r="E737" s="12"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="E738" s="11"/>
+      <c r="E738" s="12"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="E739" s="11"/>
+      <c r="E739" s="12"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="E740" s="11"/>
+      <c r="E740" s="12"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="E741" s="11"/>
+      <c r="E741" s="12"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="E742" s="11"/>
+      <c r="E742" s="12"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="E743" s="11"/>
+      <c r="E743" s="12"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="E744" s="11"/>
+      <c r="E744" s="12"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="E745" s="11"/>
+      <c r="E745" s="12"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="E746" s="11"/>
+      <c r="E746" s="12"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="E747" s="11"/>
+      <c r="E747" s="12"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="E748" s="11"/>
+      <c r="E748" s="12"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="E749" s="11"/>
+      <c r="E749" s="12"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="E750" s="11"/>
+      <c r="E750" s="12"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="E751" s="11"/>
+      <c r="E751" s="12"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="E752" s="11"/>
+      <c r="E752" s="12"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="E753" s="11"/>
+      <c r="E753" s="12"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="E754" s="11"/>
+      <c r="E754" s="12"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="E755" s="11"/>
+      <c r="E755" s="12"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="E756" s="11"/>
+      <c r="E756" s="12"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="E757" s="11"/>
+      <c r="E757" s="12"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="E758" s="11"/>
+      <c r="E758" s="12"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="E759" s="11"/>
+      <c r="E759" s="12"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="E760" s="11"/>
+      <c r="E760" s="12"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="E761" s="11"/>
+      <c r="E761" s="12"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="E762" s="11"/>
+      <c r="E762" s="12"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="E763" s="11"/>
+      <c r="E763" s="12"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="E764" s="11"/>
+      <c r="E764" s="12"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="E765" s="11"/>
+      <c r="E765" s="12"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="E766" s="11"/>
+      <c r="E766" s="12"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="E767" s="11"/>
+      <c r="E767" s="12"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="E768" s="11"/>
+      <c r="E768" s="12"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="E769" s="11"/>
+      <c r="E769" s="12"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="E770" s="11"/>
+      <c r="E770" s="12"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="E771" s="11"/>
+      <c r="E771" s="12"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="E772" s="11"/>
+      <c r="E772" s="12"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="E773" s="11"/>
+      <c r="E773" s="12"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="E774" s="11"/>
+      <c r="E774" s="12"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="E775" s="11"/>
+      <c r="E775" s="12"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="E776" s="11"/>
+      <c r="E776" s="12"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="E777" s="11"/>
+      <c r="E777" s="12"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="E778" s="11"/>
+      <c r="E778" s="12"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="E779" s="11"/>
+      <c r="E779" s="12"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="E780" s="11"/>
+      <c r="E780" s="12"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="E781" s="11"/>
+      <c r="E781" s="12"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="E782" s="11"/>
+      <c r="E782" s="12"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="E783" s="11"/>
+      <c r="E783" s="12"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="E784" s="11"/>
+      <c r="E784" s="12"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="E785" s="11"/>
+      <c r="E785" s="12"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="E786" s="11"/>
+      <c r="E786" s="12"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="E787" s="11"/>
+      <c r="E787" s="12"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="E788" s="11"/>
+      <c r="E788" s="12"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="E789" s="11"/>
+      <c r="E789" s="12"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="E790" s="11"/>
+      <c r="E790" s="12"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="E791" s="11"/>
+      <c r="E791" s="12"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="E792" s="11"/>
+      <c r="E792" s="12"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="E793" s="11"/>
+      <c r="E793" s="12"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="E794" s="11"/>
+      <c r="E794" s="12"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="E795" s="11"/>
+      <c r="E795" s="12"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="E796" s="11"/>
+      <c r="E796" s="12"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="E797" s="11"/>
+      <c r="E797" s="12"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="E798" s="11"/>
+      <c r="E798" s="12"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="E799" s="11"/>
+      <c r="E799" s="12"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="E800" s="11"/>
+      <c r="E800" s="12"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="E801" s="11"/>
+      <c r="E801" s="12"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="E802" s="11"/>
+      <c r="E802" s="12"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="E803" s="11"/>
+      <c r="E803" s="12"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="E804" s="11"/>
+      <c r="E804" s="12"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="E805" s="11"/>
+      <c r="E805" s="12"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="E806" s="11"/>
+      <c r="E806" s="12"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="E807" s="11"/>
+      <c r="E807" s="12"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="E808" s="11"/>
+      <c r="E808" s="12"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="E809" s="11"/>
+      <c r="E809" s="12"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="E810" s="11"/>
+      <c r="E810" s="12"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="E811" s="11"/>
+      <c r="E811" s="12"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="E812" s="11"/>
+      <c r="E812" s="12"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="E813" s="11"/>
+      <c r="E813" s="12"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="E814" s="11"/>
+      <c r="E814" s="12"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="E815" s="11"/>
+      <c r="E815" s="12"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="E816" s="11"/>
+      <c r="E816" s="12"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="E817" s="11"/>
+      <c r="E817" s="12"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="E818" s="11"/>
+      <c r="E818" s="12"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="E819" s="11"/>
+      <c r="E819" s="12"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="E820" s="11"/>
+      <c r="E820" s="12"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="E821" s="11"/>
+      <c r="E821" s="12"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="E822" s="11"/>
+      <c r="E822" s="12"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="E823" s="11"/>
+      <c r="E823" s="12"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="E824" s="11"/>
+      <c r="E824" s="12"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="E825" s="11"/>
+      <c r="E825" s="12"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="E826" s="11"/>
+      <c r="E826" s="12"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="E827" s="11"/>
+      <c r="E827" s="12"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="E828" s="11"/>
+      <c r="E828" s="12"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="E829" s="11"/>
+      <c r="E829" s="12"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="E830" s="11"/>
+      <c r="E830" s="12"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="E831" s="11"/>
+      <c r="E831" s="12"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="E832" s="11"/>
+      <c r="E832" s="12"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="E833" s="11"/>
+      <c r="E833" s="12"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="E834" s="11"/>
+      <c r="E834" s="12"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="E835" s="11"/>
+      <c r="E835" s="12"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="E836" s="11"/>
+      <c r="E836" s="12"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="E837" s="11"/>
+      <c r="E837" s="12"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="E838" s="11"/>
+      <c r="E838" s="12"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="E839" s="11"/>
+      <c r="E839" s="12"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="E840" s="11"/>
+      <c r="E840" s="12"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="E841" s="11"/>
+      <c r="E841" s="12"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="E842" s="11"/>
+      <c r="E842" s="12"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="E843" s="11"/>
+      <c r="E843" s="12"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="E844" s="11"/>
+      <c r="E844" s="12"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="E845" s="11"/>
+      <c r="E845" s="12"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="E846" s="11"/>
+      <c r="E846" s="12"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="E847" s="11"/>
+      <c r="E847" s="12"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="E848" s="11"/>
+      <c r="E848" s="12"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="E849" s="11"/>
+      <c r="E849" s="12"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="E850" s="11"/>
+      <c r="E850" s="12"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="E851" s="11"/>
+      <c r="E851" s="12"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="E852" s="11"/>
+      <c r="E852" s="12"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="E853" s="11"/>
+      <c r="E853" s="12"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="E854" s="11"/>
+      <c r="E854" s="12"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="E855" s="11"/>
+      <c r="E855" s="12"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="E856" s="11"/>
+      <c r="E856" s="12"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="E857" s="11"/>
+      <c r="E857" s="12"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="E858" s="11"/>
+      <c r="E858" s="12"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="E859" s="11"/>
+      <c r="E859" s="12"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="E860" s="11"/>
+      <c r="E860" s="12"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="E861" s="11"/>
+      <c r="E861" s="12"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="E862" s="11"/>
+      <c r="E862" s="12"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="E863" s="11"/>
+      <c r="E863" s="12"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="E864" s="11"/>
+      <c r="E864" s="12"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="E865" s="11"/>
+      <c r="E865" s="12"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="E866" s="11"/>
+      <c r="E866" s="12"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="E867" s="11"/>
+      <c r="E867" s="12"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="E868" s="11"/>
+      <c r="E868" s="12"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="E869" s="11"/>
+      <c r="E869" s="12"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="E870" s="11"/>
+      <c r="E870" s="12"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="E871" s="11"/>
+      <c r="E871" s="12"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="E872" s="11"/>
+      <c r="E872" s="12"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="E873" s="11"/>
+      <c r="E873" s="12"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="E874" s="11"/>
+      <c r="E874" s="12"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="E875" s="11"/>
+      <c r="E875" s="12"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="E876" s="11"/>
+      <c r="E876" s="12"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="E877" s="11"/>
+      <c r="E877" s="12"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="E878" s="11"/>
+      <c r="E878" s="12"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="E879" s="11"/>
+      <c r="E879" s="12"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="E880" s="11"/>
+      <c r="E880" s="12"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="E881" s="11"/>
+      <c r="E881" s="12"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="E882" s="11"/>
+      <c r="E882" s="12"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="E883" s="11"/>
+      <c r="E883" s="12"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="E884" s="11"/>
+      <c r="E884" s="12"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="E885" s="11"/>
+      <c r="E885" s="12"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="E886" s="11"/>
+      <c r="E886" s="12"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="E887" s="11"/>
+      <c r="E887" s="12"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="E888" s="11"/>
+      <c r="E888" s="12"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="E889" s="11"/>
+      <c r="E889" s="12"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="E890" s="11"/>
+      <c r="E890" s="12"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="E891" s="11"/>
+      <c r="E891" s="12"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="E892" s="11"/>
+      <c r="E892" s="12"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="E893" s="11"/>
+      <c r="E893" s="12"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="E894" s="11"/>
+      <c r="E894" s="12"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="E895" s="11"/>
+      <c r="E895" s="12"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="E896" s="11"/>
+      <c r="E896" s="12"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="E897" s="11"/>
+      <c r="E897" s="12"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="E898" s="11"/>
+      <c r="E898" s="12"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="E899" s="11"/>
+      <c r="E899" s="12"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="E900" s="11"/>
+      <c r="E900" s="12"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="E901" s="11"/>
+      <c r="E901" s="12"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="E902" s="11"/>
+      <c r="E902" s="12"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="E903" s="11"/>
+      <c r="E903" s="12"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="E904" s="11"/>
+      <c r="E904" s="12"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="E905" s="11"/>
+      <c r="E905" s="12"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="E906" s="11"/>
+      <c r="E906" s="12"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="E907" s="11"/>
+      <c r="E907" s="12"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="E908" s="11"/>
+      <c r="E908" s="12"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="E909" s="11"/>
+      <c r="E909" s="12"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="E910" s="11"/>
+      <c r="E910" s="12"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="E911" s="11"/>
+      <c r="E911" s="12"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="E912" s="11"/>
+      <c r="E912" s="12"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="E913" s="11"/>
+      <c r="E913" s="12"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="E914" s="11"/>
+      <c r="E914" s="12"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="E915" s="11"/>
+      <c r="E915" s="12"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="E916" s="11"/>
+      <c r="E916" s="12"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="E917" s="11"/>
+      <c r="E917" s="12"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="E918" s="11"/>
+      <c r="E918" s="12"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="E919" s="11"/>
+      <c r="E919" s="12"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="E920" s="11"/>
+      <c r="E920" s="12"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="E921" s="11"/>
+      <c r="E921" s="12"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="E922" s="11"/>
+      <c r="E922" s="12"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="E923" s="11"/>
+      <c r="E923" s="12"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="E924" s="11"/>
+      <c r="E924" s="12"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="E925" s="11"/>
+      <c r="E925" s="12"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="E926" s="11"/>
+      <c r="E926" s="12"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="E927" s="11"/>
+      <c r="E927" s="12"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="E928" s="11"/>
+      <c r="E928" s="12"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="E929" s="11"/>
+      <c r="E929" s="12"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="E930" s="11"/>
+      <c r="E930" s="12"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="E931" s="11"/>
+      <c r="E931" s="12"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="E932" s="11"/>
+      <c r="E932" s="12"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="E933" s="11"/>
+      <c r="E933" s="12"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="E934" s="11"/>
+      <c r="E934" s="12"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="E935" s="11"/>
+      <c r="E935" s="12"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="E936" s="11"/>
+      <c r="E936" s="12"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="E937" s="11"/>
+      <c r="E937" s="12"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="E938" s="11"/>
+      <c r="E938" s="12"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="E939" s="11"/>
+      <c r="E939" s="12"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="E940" s="11"/>
+      <c r="E940" s="12"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="E941" s="11"/>
+      <c r="E941" s="12"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="E942" s="11"/>
+      <c r="E942" s="12"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="E943" s="11"/>
+      <c r="E943" s="12"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="E944" s="11"/>
+      <c r="E944" s="12"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="E945" s="11"/>
+      <c r="E945" s="12"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="E946" s="11"/>
+      <c r="E946" s="12"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="E947" s="11"/>
+      <c r="E947" s="12"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="E948" s="11"/>
+      <c r="E948" s="12"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="E949" s="11"/>
+      <c r="E949" s="12"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="E950" s="11"/>
+      <c r="E950" s="12"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="E951" s="11"/>
+      <c r="E951" s="12"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="E952" s="11"/>
+      <c r="E952" s="12"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="E953" s="11"/>
+      <c r="E953" s="12"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="E954" s="11"/>
+      <c r="E954" s="12"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="E955" s="11"/>
+      <c r="E955" s="12"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="E956" s="11"/>
+      <c r="E956" s="12"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="E957" s="11"/>
+      <c r="E957" s="12"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="E958" s="11"/>
+      <c r="E958" s="12"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="E959" s="11"/>
+      <c r="E959" s="12"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="E960" s="11"/>
+      <c r="E960" s="12"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="E961" s="11"/>
+      <c r="E961" s="12"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="E962" s="11"/>
+      <c r="E962" s="12"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="E963" s="11"/>
+      <c r="E963" s="12"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="E964" s="11"/>
+      <c r="E964" s="12"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="E965" s="11"/>
+      <c r="E965" s="12"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="E966" s="11"/>
+      <c r="E966" s="12"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="E967" s="11"/>
+      <c r="E967" s="12"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="E968" s="11"/>
+      <c r="E968" s="12"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="E969" s="11"/>
+      <c r="E969" s="12"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="E970" s="11"/>
+      <c r="E970" s="12"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="E971" s="11"/>
+      <c r="E971" s="12"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="E972" s="11"/>
+      <c r="E972" s="12"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="E973" s="11"/>
+      <c r="E973" s="12"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="E974" s="11"/>
+      <c r="E974" s="12"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="E975" s="11"/>
+      <c r="E975" s="12"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="E976" s="11"/>
+      <c r="E976" s="12"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="E977" s="11"/>
+      <c r="E977" s="12"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="E978" s="11"/>
+      <c r="E978" s="12"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="E979" s="11"/>
+      <c r="E979" s="12"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="E980" s="11"/>
-    </row>
-    <row r="981" ht="14.25" customHeight="1">
-      <c r="E981" s="11"/>
+      <c r="E980" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$21"/>
+  <autoFilter ref="$A$1:$F$20"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4024,244 +4060,309 @@
   </cols>
   <sheetData>
     <row r="1" ht="42.0" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="15" t="s">
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4298,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4308,132 +4409,132 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>81</v>
+      <c r="D2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>85</v>
+      <c r="D3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="B5" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>

--- a/Fase 1/DocumentosProyecto/Planilla de Requerimientos.xlsx
+++ b/Fase 1/DocumentosProyecto/Planilla de Requerimientos.xlsx
@@ -8,7 +8,7 @@
     <sheet state="visible" name="Ejemplo" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Aplicación Principal'!$A$1:$F$20</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Aplicación Principal'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
   <si>
     <t>[R-N°]</t>
   </si>
@@ -215,13 +215,106 @@
     <t>R.18</t>
   </si>
   <si>
+    <t>Ver cursos</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Puede ver un listado de los cursos que puede realizar.</t>
+  </si>
+  <si>
+    <t>R.19</t>
+  </si>
+  <si>
+    <t>Ver cursos tomados</t>
+  </si>
+  <si>
+    <t>Puede ver los cursos que ha tomado para realizarlos.</t>
+  </si>
+  <si>
+    <t>R.20</t>
+  </si>
+  <si>
+    <t>Realizar cursos</t>
+  </si>
+  <si>
+    <t>Selecciona un curso y lo realiza.</t>
+  </si>
+  <si>
+    <t>R.21</t>
+  </si>
+  <si>
+    <t>Realizar examen</t>
+  </si>
+  <si>
+    <t>Al final del curso o durante este, realiza un examen para obtener una calificación y/o certificado.</t>
+  </si>
+  <si>
+    <t>R.22</t>
+  </si>
+  <si>
+    <t>Ver calificaciones</t>
+  </si>
+  <si>
+    <t>Puede ver su calificación una vez el docente desde la otra APP la suba.</t>
+  </si>
+  <si>
+    <t>R.23</t>
+  </si>
+  <si>
+    <t>Ver certificados</t>
+  </si>
+  <si>
+    <t>Puede ver sus certificados de cursos realizados previamente.</t>
+  </si>
+  <si>
+    <t>R.24</t>
+  </si>
+  <si>
+    <t>Ver progreso del curso</t>
+  </si>
+  <si>
+    <t>Visualiza en porcentaje cuánto lleva del curso.</t>
+  </si>
+  <si>
+    <t>R.25</t>
+  </si>
+  <si>
+    <t>R.26</t>
+  </si>
+  <si>
+    <t>Docente, Administrador</t>
+  </si>
+  <si>
+    <t>R.27</t>
+  </si>
+  <si>
+    <t>Calcular calificación</t>
+  </si>
+  <si>
+    <t>Coloca una calificación a un examen para cada estudiante.</t>
+  </si>
+  <si>
+    <t>R.28</t>
+  </si>
+  <si>
+    <t>Formato calificación</t>
+  </si>
+  <si>
     <t>No Funcional</t>
   </si>
   <si>
-    <t>R.19</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
+    <t>Las calificaciones se muestran con puntaje de 1.0 a 7.0.</t>
+  </si>
+  <si>
+    <t>R.29</t>
+  </si>
+  <si>
+    <t>Formato progreso</t>
+  </si>
+  <si>
+    <t>El formato del progreso del curso será en porcentajes.</t>
   </si>
   <si>
     <t>Ingresa su cuenta correspondiente para entrar a su sesión.</t>
@@ -230,67 +323,22 @@
     <t>Una vez iniciada su sesión, puede cerrarla con un botón</t>
   </si>
   <si>
-    <t>Ver cursos</t>
-  </si>
-  <si>
-    <t>Puede ver un listado de los cursos que puede realizar.</t>
-  </si>
-  <si>
-    <t>Ver cursos tomados</t>
-  </si>
-  <si>
-    <t>Puede ver los cursos que ha tomado para realizarlos.</t>
-  </si>
-  <si>
-    <t>Realizar cursos</t>
-  </si>
-  <si>
-    <t>Selecciona un curso y lo realiza.</t>
-  </si>
-  <si>
-    <t>Realizar examen</t>
-  </si>
-  <si>
-    <t>Al final del curso o durante este, realiza un examen para obtener una calificación y/o certificado.</t>
-  </si>
-  <si>
-    <t>Ver calificaciones</t>
-  </si>
-  <si>
-    <t>Puede ver su calificación una vez el docente desde la otra APP la suba.</t>
-  </si>
-  <si>
-    <t>Ver certificados</t>
-  </si>
-  <si>
-    <t>Puede ver sus certificados de cursos realizados previamente.</t>
-  </si>
-  <si>
-    <t>Ver progreso del curso</t>
-  </si>
-  <si>
-    <t>Visualiza en porcentaje cuánto lleva del curso.</t>
-  </si>
-  <si>
-    <t>Docente, Administrador</t>
-  </si>
-  <si>
-    <t>Calcular calificación</t>
-  </si>
-  <si>
-    <t>Coloca una calificación a un examen para cada estudiante.</t>
-  </si>
-  <si>
-    <t>Formato calificación</t>
-  </si>
-  <si>
-    <t>Las calificaciones se muestran con puntaje de 1.0 a 7.0.</t>
-  </si>
-  <si>
-    <t>Formato progreso</t>
-  </si>
-  <si>
-    <t>El formato del progreso del curso será en porcentajes.</t>
+    <t>Crear usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá crear todo tipo de usuarios.</t>
+  </si>
+  <si>
+    <t>Modificar usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá modificar todo tipo de usuarios.</t>
+  </si>
+  <si>
+    <t>Eliminar usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá eliminar todo tipo de usuarios.</t>
   </si>
   <si>
     <t>Actores Relacionados</t>
@@ -447,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -479,10 +527,13 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
@@ -496,14 +547,26 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1137,2904 +1200,3094 @@
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1"/>
+      <c r="E20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1"/>
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="E24" s="12"/>
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="E25" s="12"/>
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="E26" s="12"/>
+      <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="E27" s="12"/>
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="E28" s="12"/>
+      <c r="A28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="E29" s="12"/>
+      <c r="A29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="E30" s="12"/>
+      <c r="A30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="E31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="E32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="E33" s="12"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="E34" s="12"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="E35" s="12"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="E36" s="12"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="E37" s="12"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="E38" s="12"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="E39" s="12"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="E40" s="12"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="E41" s="12"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="E42" s="12"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="E43" s="12"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="E44" s="12"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="E45" s="12"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="E46" s="12"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="E47" s="12"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="E48" s="12"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="E49" s="12"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="E50" s="12"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="E51" s="12"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="E52" s="12"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="E53" s="12"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="E54" s="12"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="E55" s="12"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="E56" s="12"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="E57" s="12"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="E58" s="12"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="E59" s="12"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="E60" s="12"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="E61" s="12"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="E62" s="12"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="E63" s="12"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="E64" s="12"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="E65" s="12"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="E66" s="12"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="E67" s="12"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="E68" s="12"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="E69" s="12"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="E70" s="12"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="E71" s="12"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="E72" s="12"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="E73" s="12"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="E74" s="12"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="E75" s="12"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="E76" s="12"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="E77" s="12"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="E78" s="12"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="E79" s="12"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="E80" s="12"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="E81" s="12"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="E82" s="12"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="E83" s="12"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="E84" s="12"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="E85" s="12"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="E86" s="12"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="E87" s="12"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="E88" s="12"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="E89" s="12"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="E90" s="12"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="E91" s="12"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="E92" s="12"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="E93" s="12"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="E94" s="12"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="E95" s="12"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="E96" s="12"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="E97" s="12"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="E98" s="12"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="E99" s="12"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="E100" s="12"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="E101" s="12"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="E102" s="12"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="E103" s="12"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="E104" s="12"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="E105" s="12"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="E106" s="12"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="E107" s="12"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="E108" s="12"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="E109" s="12"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="E110" s="12"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="E111" s="12"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="E112" s="12"/>
+      <c r="E112" s="13"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="E113" s="12"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="E114" s="12"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="E115" s="12"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="E116" s="12"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="E117" s="12"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="E118" s="12"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="E119" s="12"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="E120" s="12"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="E121" s="12"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="E122" s="12"/>
+      <c r="E122" s="13"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="E123" s="12"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="E124" s="12"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="E125" s="12"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="E126" s="12"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="E127" s="12"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="E128" s="12"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="E129" s="12"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="E130" s="12"/>
+      <c r="E130" s="13"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="E131" s="12"/>
+      <c r="E131" s="13"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="E132" s="12"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="E133" s="12"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="E134" s="12"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="E135" s="12"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="E136" s="12"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="E137" s="12"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="E138" s="12"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="E139" s="12"/>
+      <c r="E139" s="13"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="E140" s="12"/>
+      <c r="E140" s="13"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="E141" s="12"/>
+      <c r="E141" s="13"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="E142" s="12"/>
+      <c r="E142" s="13"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="E143" s="12"/>
+      <c r="E143" s="13"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="E144" s="12"/>
+      <c r="E144" s="13"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="E145" s="12"/>
+      <c r="E145" s="13"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="E146" s="12"/>
+      <c r="E146" s="13"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="E147" s="12"/>
+      <c r="E147" s="13"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="E148" s="12"/>
+      <c r="E148" s="13"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="E149" s="12"/>
+      <c r="E149" s="13"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="E150" s="12"/>
+      <c r="E150" s="13"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="E151" s="12"/>
+      <c r="E151" s="13"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="E152" s="12"/>
+      <c r="E152" s="13"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="E153" s="12"/>
+      <c r="E153" s="13"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="E154" s="12"/>
+      <c r="E154" s="13"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="E155" s="12"/>
+      <c r="E155" s="13"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="E156" s="12"/>
+      <c r="E156" s="13"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="E157" s="12"/>
+      <c r="E157" s="13"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="E158" s="12"/>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="E159" s="12"/>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="E160" s="12"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="E161" s="12"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="E162" s="12"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="E163" s="12"/>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="E164" s="12"/>
+      <c r="E164" s="13"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="E165" s="12"/>
+      <c r="E165" s="13"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="E166" s="12"/>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="E167" s="12"/>
+      <c r="E167" s="13"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="E168" s="12"/>
+      <c r="E168" s="13"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="E169" s="12"/>
+      <c r="E169" s="13"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="E170" s="12"/>
+      <c r="E170" s="13"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="E171" s="12"/>
+      <c r="E171" s="13"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="E172" s="12"/>
+      <c r="E172" s="13"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="E173" s="12"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="E174" s="12"/>
+      <c r="E174" s="13"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="E175" s="12"/>
+      <c r="E175" s="13"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="E176" s="12"/>
+      <c r="E176" s="13"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="E177" s="12"/>
+      <c r="E177" s="13"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="E178" s="12"/>
+      <c r="E178" s="13"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="E179" s="12"/>
+      <c r="E179" s="13"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="E180" s="12"/>
+      <c r="E180" s="13"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="E181" s="12"/>
+      <c r="E181" s="13"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="E182" s="12"/>
+      <c r="E182" s="13"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="E183" s="12"/>
+      <c r="E183" s="13"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="E184" s="12"/>
+      <c r="E184" s="13"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="E185" s="12"/>
+      <c r="E185" s="13"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="E186" s="12"/>
+      <c r="E186" s="13"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="E187" s="12"/>
+      <c r="E187" s="13"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="E188" s="12"/>
+      <c r="E188" s="13"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="E189" s="12"/>
+      <c r="E189" s="13"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="E190" s="12"/>
+      <c r="E190" s="13"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="E191" s="12"/>
+      <c r="E191" s="13"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="E192" s="12"/>
+      <c r="E192" s="13"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="E193" s="12"/>
+      <c r="E193" s="13"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="E194" s="12"/>
+      <c r="E194" s="13"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="E195" s="12"/>
+      <c r="E195" s="13"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="E196" s="12"/>
+      <c r="E196" s="13"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="E197" s="12"/>
+      <c r="E197" s="13"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="E198" s="12"/>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="E199" s="12"/>
+      <c r="E199" s="13"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="E200" s="12"/>
+      <c r="E200" s="13"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="E201" s="12"/>
+      <c r="E201" s="13"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="E202" s="12"/>
+      <c r="E202" s="13"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="E203" s="12"/>
+      <c r="E203" s="13"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="E204" s="12"/>
+      <c r="E204" s="13"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="E205" s="12"/>
+      <c r="E205" s="13"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="E206" s="12"/>
+      <c r="E206" s="13"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="E207" s="12"/>
+      <c r="E207" s="13"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="E208" s="12"/>
+      <c r="E208" s="13"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="E209" s="12"/>
+      <c r="E209" s="13"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="E210" s="12"/>
+      <c r="E210" s="13"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="E211" s="12"/>
+      <c r="E211" s="13"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="E212" s="12"/>
+      <c r="E212" s="13"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="E213" s="12"/>
+      <c r="E213" s="13"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="E214" s="12"/>
+      <c r="E214" s="13"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="E215" s="12"/>
+      <c r="E215" s="13"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="E216" s="12"/>
+      <c r="E216" s="13"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="E217" s="12"/>
+      <c r="E217" s="13"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="E218" s="12"/>
+      <c r="E218" s="13"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="E219" s="12"/>
+      <c r="E219" s="13"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="E220" s="12"/>
+      <c r="E220" s="13"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="E221" s="12"/>
+      <c r="E221" s="13"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="E222" s="12"/>
+      <c r="E222" s="13"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="E223" s="12"/>
+      <c r="E223" s="13"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="E224" s="12"/>
+      <c r="E224" s="13"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="E225" s="12"/>
+      <c r="E225" s="13"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="E226" s="12"/>
+      <c r="E226" s="13"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="E227" s="12"/>
+      <c r="E227" s="13"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="E228" s="12"/>
+      <c r="E228" s="13"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="E229" s="12"/>
+      <c r="E229" s="13"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="E230" s="12"/>
+      <c r="E230" s="13"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="E231" s="12"/>
+      <c r="E231" s="13"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="E232" s="12"/>
+      <c r="E232" s="13"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="E233" s="12"/>
+      <c r="E233" s="13"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="E234" s="12"/>
+      <c r="E234" s="13"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="E235" s="12"/>
+      <c r="E235" s="13"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="E236" s="12"/>
+      <c r="E236" s="13"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="E237" s="12"/>
+      <c r="E237" s="13"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="E238" s="12"/>
+      <c r="E238" s="13"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="E239" s="12"/>
+      <c r="E239" s="13"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="E240" s="12"/>
+      <c r="E240" s="13"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="E241" s="12"/>
+      <c r="E241" s="13"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="E242" s="12"/>
+      <c r="E242" s="13"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="E243" s="12"/>
+      <c r="E243" s="13"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="E244" s="12"/>
+      <c r="E244" s="13"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="E245" s="12"/>
+      <c r="E245" s="13"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="E246" s="12"/>
+      <c r="E246" s="13"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="E247" s="12"/>
+      <c r="E247" s="13"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="E248" s="12"/>
+      <c r="E248" s="13"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="E249" s="12"/>
+      <c r="E249" s="13"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="E250" s="12"/>
+      <c r="E250" s="13"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="E251" s="12"/>
+      <c r="E251" s="13"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="E252" s="12"/>
+      <c r="E252" s="13"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="E253" s="12"/>
+      <c r="E253" s="13"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="E254" s="12"/>
+      <c r="E254" s="13"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="E255" s="12"/>
+      <c r="E255" s="13"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="E256" s="12"/>
+      <c r="E256" s="13"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="E257" s="12"/>
+      <c r="E257" s="13"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="E258" s="12"/>
+      <c r="E258" s="13"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="E259" s="12"/>
+      <c r="E259" s="13"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="E260" s="12"/>
+      <c r="E260" s="13"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="E261" s="12"/>
+      <c r="E261" s="13"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="E262" s="12"/>
+      <c r="E262" s="13"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="E263" s="12"/>
+      <c r="E263" s="13"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="E264" s="12"/>
+      <c r="E264" s="13"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="E265" s="12"/>
+      <c r="E265" s="13"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="E266" s="12"/>
+      <c r="E266" s="13"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="E267" s="12"/>
+      <c r="E267" s="13"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="E268" s="12"/>
+      <c r="E268" s="13"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="E269" s="12"/>
+      <c r="E269" s="13"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="E270" s="12"/>
+      <c r="E270" s="13"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="E271" s="12"/>
+      <c r="E271" s="13"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="E272" s="12"/>
+      <c r="E272" s="13"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="E273" s="12"/>
+      <c r="E273" s="13"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="E274" s="12"/>
+      <c r="E274" s="13"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="E275" s="12"/>
+      <c r="E275" s="13"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="E276" s="12"/>
+      <c r="E276" s="13"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="E277" s="12"/>
+      <c r="E277" s="13"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="E278" s="12"/>
+      <c r="E278" s="13"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="E279" s="12"/>
+      <c r="E279" s="13"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="E280" s="12"/>
+      <c r="E280" s="13"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="E281" s="12"/>
+      <c r="E281" s="13"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="E282" s="12"/>
+      <c r="E282" s="13"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="E283" s="12"/>
+      <c r="E283" s="13"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="E284" s="12"/>
+      <c r="E284" s="13"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="E285" s="12"/>
+      <c r="E285" s="13"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="E286" s="12"/>
+      <c r="E286" s="13"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="E287" s="12"/>
+      <c r="E287" s="13"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="E288" s="12"/>
+      <c r="E288" s="13"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="E289" s="12"/>
+      <c r="E289" s="13"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="E290" s="12"/>
+      <c r="E290" s="13"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="E291" s="12"/>
+      <c r="E291" s="13"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="E292" s="12"/>
+      <c r="E292" s="13"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="E293" s="12"/>
+      <c r="E293" s="13"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="E294" s="12"/>
+      <c r="E294" s="13"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="E295" s="12"/>
+      <c r="E295" s="13"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="E296" s="12"/>
+      <c r="E296" s="13"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="E297" s="12"/>
+      <c r="E297" s="13"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="E298" s="12"/>
+      <c r="E298" s="13"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="E299" s="12"/>
+      <c r="E299" s="13"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="E300" s="12"/>
+      <c r="E300" s="13"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="E301" s="12"/>
+      <c r="E301" s="13"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="E302" s="12"/>
+      <c r="E302" s="13"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="E303" s="12"/>
+      <c r="E303" s="13"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="E304" s="12"/>
+      <c r="E304" s="13"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="E305" s="12"/>
+      <c r="E305" s="13"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="E306" s="12"/>
+      <c r="E306" s="13"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="E307" s="12"/>
+      <c r="E307" s="13"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="E308" s="12"/>
+      <c r="E308" s="13"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="E309" s="12"/>
+      <c r="E309" s="13"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="E310" s="12"/>
+      <c r="E310" s="13"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="E311" s="12"/>
+      <c r="E311" s="13"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="E312" s="12"/>
+      <c r="E312" s="13"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="E313" s="12"/>
+      <c r="E313" s="13"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="E314" s="12"/>
+      <c r="E314" s="13"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="E315" s="12"/>
+      <c r="E315" s="13"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="E316" s="12"/>
+      <c r="E316" s="13"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="E317" s="12"/>
+      <c r="E317" s="13"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="E318" s="12"/>
+      <c r="E318" s="13"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="E319" s="12"/>
+      <c r="E319" s="13"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="E320" s="12"/>
+      <c r="E320" s="13"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="E321" s="12"/>
+      <c r="E321" s="13"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="E322" s="12"/>
+      <c r="E322" s="13"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="E323" s="12"/>
+      <c r="E323" s="13"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="E324" s="12"/>
+      <c r="E324" s="13"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="E325" s="12"/>
+      <c r="E325" s="13"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="E326" s="12"/>
+      <c r="E326" s="13"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="E327" s="12"/>
+      <c r="E327" s="13"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="E328" s="12"/>
+      <c r="E328" s="13"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="E329" s="12"/>
+      <c r="E329" s="13"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="E330" s="12"/>
+      <c r="E330" s="13"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="E331" s="12"/>
+      <c r="E331" s="13"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="E332" s="12"/>
+      <c r="E332" s="13"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="E333" s="12"/>
+      <c r="E333" s="13"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="E334" s="12"/>
+      <c r="E334" s="13"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="E335" s="12"/>
+      <c r="E335" s="13"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="E336" s="12"/>
+      <c r="E336" s="13"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="E337" s="12"/>
+      <c r="E337" s="13"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="E338" s="12"/>
+      <c r="E338" s="13"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="E339" s="12"/>
+      <c r="E339" s="13"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="E340" s="12"/>
+      <c r="E340" s="13"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="E341" s="12"/>
+      <c r="E341" s="13"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="E342" s="12"/>
+      <c r="E342" s="13"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="E343" s="12"/>
+      <c r="E343" s="13"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="E344" s="12"/>
+      <c r="E344" s="13"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="E345" s="12"/>
+      <c r="E345" s="13"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="E346" s="12"/>
+      <c r="E346" s="13"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="E347" s="12"/>
+      <c r="E347" s="13"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="E348" s="12"/>
+      <c r="E348" s="13"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="E349" s="12"/>
+      <c r="E349" s="13"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="E350" s="12"/>
+      <c r="E350" s="13"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="E351" s="12"/>
+      <c r="E351" s="13"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="E352" s="12"/>
+      <c r="E352" s="13"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="E353" s="12"/>
+      <c r="E353" s="13"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="E354" s="12"/>
+      <c r="E354" s="13"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="E355" s="12"/>
+      <c r="E355" s="13"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="E356" s="12"/>
+      <c r="E356" s="13"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="E357" s="12"/>
+      <c r="E357" s="13"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="E358" s="12"/>
+      <c r="E358" s="13"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="E359" s="12"/>
+      <c r="E359" s="13"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="E360" s="12"/>
+      <c r="E360" s="13"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="E361" s="12"/>
+      <c r="E361" s="13"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="E362" s="12"/>
+      <c r="E362" s="13"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="E363" s="12"/>
+      <c r="E363" s="13"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="E364" s="12"/>
+      <c r="E364" s="13"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="E365" s="12"/>
+      <c r="E365" s="13"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="E366" s="12"/>
+      <c r="E366" s="13"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="E367" s="12"/>
+      <c r="E367" s="13"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="E368" s="12"/>
+      <c r="E368" s="13"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="E369" s="12"/>
+      <c r="E369" s="13"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="E370" s="12"/>
+      <c r="E370" s="13"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="E371" s="12"/>
+      <c r="E371" s="13"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="E372" s="12"/>
+      <c r="E372" s="13"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="E373" s="12"/>
+      <c r="E373" s="13"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="E374" s="12"/>
+      <c r="E374" s="13"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="E375" s="12"/>
+      <c r="E375" s="13"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="E376" s="12"/>
+      <c r="E376" s="13"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="E377" s="12"/>
+      <c r="E377" s="13"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="E378" s="12"/>
+      <c r="E378" s="13"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="E379" s="12"/>
+      <c r="E379" s="13"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="E380" s="12"/>
+      <c r="E380" s="13"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="E381" s="12"/>
+      <c r="E381" s="13"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="E382" s="12"/>
+      <c r="E382" s="13"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="E383" s="12"/>
+      <c r="E383" s="13"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="E384" s="12"/>
+      <c r="E384" s="13"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="E385" s="12"/>
+      <c r="E385" s="13"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="E386" s="12"/>
+      <c r="E386" s="13"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="E387" s="12"/>
+      <c r="E387" s="13"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="E388" s="12"/>
+      <c r="E388" s="13"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="E389" s="12"/>
+      <c r="E389" s="13"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="E390" s="12"/>
+      <c r="E390" s="13"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="E391" s="12"/>
+      <c r="E391" s="13"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="E392" s="12"/>
+      <c r="E392" s="13"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="E393" s="12"/>
+      <c r="E393" s="13"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="E394" s="12"/>
+      <c r="E394" s="13"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="E395" s="12"/>
+      <c r="E395" s="13"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="E396" s="12"/>
+      <c r="E396" s="13"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="E397" s="12"/>
+      <c r="E397" s="13"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="E398" s="12"/>
+      <c r="E398" s="13"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="E399" s="12"/>
+      <c r="E399" s="13"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="E400" s="12"/>
+      <c r="E400" s="13"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="E401" s="12"/>
+      <c r="E401" s="13"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="E402" s="12"/>
+      <c r="E402" s="13"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="E403" s="12"/>
+      <c r="E403" s="13"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="E404" s="12"/>
+      <c r="E404" s="13"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="E405" s="12"/>
+      <c r="E405" s="13"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="E406" s="12"/>
+      <c r="E406" s="13"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="E407" s="12"/>
+      <c r="E407" s="13"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="E408" s="12"/>
+      <c r="E408" s="13"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="E409" s="12"/>
+      <c r="E409" s="13"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="E410" s="12"/>
+      <c r="E410" s="13"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="E411" s="12"/>
+      <c r="E411" s="13"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="E412" s="12"/>
+      <c r="E412" s="13"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="E413" s="12"/>
+      <c r="E413" s="13"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="E414" s="12"/>
+      <c r="E414" s="13"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="E415" s="12"/>
+      <c r="E415" s="13"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="E416" s="12"/>
+      <c r="E416" s="13"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="E417" s="12"/>
+      <c r="E417" s="13"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="E418" s="12"/>
+      <c r="E418" s="13"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="E419" s="12"/>
+      <c r="E419" s="13"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="E420" s="12"/>
+      <c r="E420" s="13"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="E421" s="12"/>
+      <c r="E421" s="13"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="E422" s="12"/>
+      <c r="E422" s="13"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="E423" s="12"/>
+      <c r="E423" s="13"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="E424" s="12"/>
+      <c r="E424" s="13"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="E425" s="12"/>
+      <c r="E425" s="13"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="E426" s="12"/>
+      <c r="E426" s="13"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="E427" s="12"/>
+      <c r="E427" s="13"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="E428" s="12"/>
+      <c r="E428" s="13"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="E429" s="12"/>
+      <c r="E429" s="13"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="E430" s="12"/>
+      <c r="E430" s="13"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="E431" s="12"/>
+      <c r="E431" s="13"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="E432" s="12"/>
+      <c r="E432" s="13"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="E433" s="12"/>
+      <c r="E433" s="13"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="E434" s="12"/>
+      <c r="E434" s="13"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="E435" s="12"/>
+      <c r="E435" s="13"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="E436" s="12"/>
+      <c r="E436" s="13"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="E437" s="12"/>
+      <c r="E437" s="13"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="E438" s="12"/>
+      <c r="E438" s="13"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="E439" s="12"/>
+      <c r="E439" s="13"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="E440" s="12"/>
+      <c r="E440" s="13"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="E441" s="12"/>
+      <c r="E441" s="13"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="E442" s="12"/>
+      <c r="E442" s="13"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="E443" s="12"/>
+      <c r="E443" s="13"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="E444" s="12"/>
+      <c r="E444" s="13"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="E445" s="12"/>
+      <c r="E445" s="13"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="E446" s="12"/>
+      <c r="E446" s="13"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="E447" s="12"/>
+      <c r="E447" s="13"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="E448" s="12"/>
+      <c r="E448" s="13"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="E449" s="12"/>
+      <c r="E449" s="13"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="E450" s="12"/>
+      <c r="E450" s="13"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="E451" s="12"/>
+      <c r="E451" s="13"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="E452" s="12"/>
+      <c r="E452" s="13"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="E453" s="12"/>
+      <c r="E453" s="13"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="E454" s="12"/>
+      <c r="E454" s="13"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="E455" s="12"/>
+      <c r="E455" s="13"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="E456" s="12"/>
+      <c r="E456" s="13"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="E457" s="12"/>
+      <c r="E457" s="13"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="E458" s="12"/>
+      <c r="E458" s="13"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="E459" s="12"/>
+      <c r="E459" s="13"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="E460" s="12"/>
+      <c r="E460" s="13"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="E461" s="12"/>
+      <c r="E461" s="13"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="E462" s="12"/>
+      <c r="E462" s="13"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="E463" s="12"/>
+      <c r="E463" s="13"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="E464" s="12"/>
+      <c r="E464" s="13"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="E465" s="12"/>
+      <c r="E465" s="13"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="E466" s="12"/>
+      <c r="E466" s="13"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="E467" s="12"/>
+      <c r="E467" s="13"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="E468" s="12"/>
+      <c r="E468" s="13"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="E469" s="12"/>
+      <c r="E469" s="13"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="E470" s="12"/>
+      <c r="E470" s="13"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="E471" s="12"/>
+      <c r="E471" s="13"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="E472" s="12"/>
+      <c r="E472" s="13"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="E473" s="12"/>
+      <c r="E473" s="13"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="E474" s="12"/>
+      <c r="E474" s="13"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="E475" s="12"/>
+      <c r="E475" s="13"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="E476" s="12"/>
+      <c r="E476" s="13"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="E477" s="12"/>
+      <c r="E477" s="13"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="E478" s="12"/>
+      <c r="E478" s="13"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="E479" s="12"/>
+      <c r="E479" s="13"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="E480" s="12"/>
+      <c r="E480" s="13"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="E481" s="12"/>
+      <c r="E481" s="13"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="E482" s="12"/>
+      <c r="E482" s="13"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="E483" s="12"/>
+      <c r="E483" s="13"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="E484" s="12"/>
+      <c r="E484" s="13"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="E485" s="12"/>
+      <c r="E485" s="13"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="E486" s="12"/>
+      <c r="E486" s="13"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="E487" s="12"/>
+      <c r="E487" s="13"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="E488" s="12"/>
+      <c r="E488" s="13"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="E489" s="12"/>
+      <c r="E489" s="13"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="E490" s="12"/>
+      <c r="E490" s="13"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="E491" s="12"/>
+      <c r="E491" s="13"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="E492" s="12"/>
+      <c r="E492" s="13"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="E493" s="12"/>
+      <c r="E493" s="13"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="E494" s="12"/>
+      <c r="E494" s="13"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="E495" s="12"/>
+      <c r="E495" s="13"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="E496" s="12"/>
+      <c r="E496" s="13"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="E497" s="12"/>
+      <c r="E497" s="13"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="E498" s="12"/>
+      <c r="E498" s="13"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="E499" s="12"/>
+      <c r="E499" s="13"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="E500" s="12"/>
+      <c r="E500" s="13"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="E501" s="12"/>
+      <c r="E501" s="13"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="E502" s="12"/>
+      <c r="E502" s="13"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="E503" s="12"/>
+      <c r="E503" s="13"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="E504" s="12"/>
+      <c r="E504" s="13"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="E505" s="12"/>
+      <c r="E505" s="13"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="E506" s="12"/>
+      <c r="E506" s="13"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="E507" s="12"/>
+      <c r="E507" s="13"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="E508" s="12"/>
+      <c r="E508" s="13"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="E509" s="12"/>
+      <c r="E509" s="13"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="E510" s="12"/>
+      <c r="E510" s="13"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="E511" s="12"/>
+      <c r="E511" s="13"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="E512" s="12"/>
+      <c r="E512" s="13"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="E513" s="12"/>
+      <c r="E513" s="13"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="E514" s="12"/>
+      <c r="E514" s="13"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="E515" s="12"/>
+      <c r="E515" s="13"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="E516" s="12"/>
+      <c r="E516" s="13"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="E517" s="12"/>
+      <c r="E517" s="13"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="E518" s="12"/>
+      <c r="E518" s="13"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="E519" s="12"/>
+      <c r="E519" s="13"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="E520" s="12"/>
+      <c r="E520" s="13"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="E521" s="12"/>
+      <c r="E521" s="13"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="E522" s="12"/>
+      <c r="E522" s="13"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="E523" s="12"/>
+      <c r="E523" s="13"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="E524" s="12"/>
+      <c r="E524" s="13"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="E525" s="12"/>
+      <c r="E525" s="13"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="E526" s="12"/>
+      <c r="E526" s="13"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="E527" s="12"/>
+      <c r="E527" s="13"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="E528" s="12"/>
+      <c r="E528" s="13"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="E529" s="12"/>
+      <c r="E529" s="13"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="E530" s="12"/>
+      <c r="E530" s="13"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="E531" s="12"/>
+      <c r="E531" s="13"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="E532" s="12"/>
+      <c r="E532" s="13"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="E533" s="12"/>
+      <c r="E533" s="13"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="E534" s="12"/>
+      <c r="E534" s="13"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="E535" s="12"/>
+      <c r="E535" s="13"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="E536" s="12"/>
+      <c r="E536" s="13"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="E537" s="12"/>
+      <c r="E537" s="13"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="E538" s="12"/>
+      <c r="E538" s="13"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="E539" s="12"/>
+      <c r="E539" s="13"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="E540" s="12"/>
+      <c r="E540" s="13"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="E541" s="12"/>
+      <c r="E541" s="13"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="E542" s="12"/>
+      <c r="E542" s="13"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="E543" s="12"/>
+      <c r="E543" s="13"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="E544" s="12"/>
+      <c r="E544" s="13"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="E545" s="12"/>
+      <c r="E545" s="13"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="E546" s="12"/>
+      <c r="E546" s="13"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="E547" s="12"/>
+      <c r="E547" s="13"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="E548" s="12"/>
+      <c r="E548" s="13"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="E549" s="12"/>
+      <c r="E549" s="13"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="E550" s="12"/>
+      <c r="E550" s="13"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="E551" s="12"/>
+      <c r="E551" s="13"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="E552" s="12"/>
+      <c r="E552" s="13"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="E553" s="12"/>
+      <c r="E553" s="13"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="E554" s="12"/>
+      <c r="E554" s="13"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="E555" s="12"/>
+      <c r="E555" s="13"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="E556" s="12"/>
+      <c r="E556" s="13"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="E557" s="12"/>
+      <c r="E557" s="13"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="E558" s="12"/>
+      <c r="E558" s="13"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="E559" s="12"/>
+      <c r="E559" s="13"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="E560" s="12"/>
+      <c r="E560" s="13"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="E561" s="12"/>
+      <c r="E561" s="13"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="E562" s="12"/>
+      <c r="E562" s="13"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="E563" s="12"/>
+      <c r="E563" s="13"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="E564" s="12"/>
+      <c r="E564" s="13"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="E565" s="12"/>
+      <c r="E565" s="13"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="E566" s="12"/>
+      <c r="E566" s="13"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="E567" s="12"/>
+      <c r="E567" s="13"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="E568" s="12"/>
+      <c r="E568" s="13"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="E569" s="12"/>
+      <c r="E569" s="13"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="E570" s="12"/>
+      <c r="E570" s="13"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="E571" s="12"/>
+      <c r="E571" s="13"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="E572" s="12"/>
+      <c r="E572" s="13"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="E573" s="12"/>
+      <c r="E573" s="13"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="E574" s="12"/>
+      <c r="E574" s="13"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="E575" s="12"/>
+      <c r="E575" s="13"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="E576" s="12"/>
+      <c r="E576" s="13"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="E577" s="12"/>
+      <c r="E577" s="13"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="E578" s="12"/>
+      <c r="E578" s="13"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="E579" s="12"/>
+      <c r="E579" s="13"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="E580" s="12"/>
+      <c r="E580" s="13"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="E581" s="12"/>
+      <c r="E581" s="13"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="E582" s="12"/>
+      <c r="E582" s="13"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="E583" s="12"/>
+      <c r="E583" s="13"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="E584" s="12"/>
+      <c r="E584" s="13"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="E585" s="12"/>
+      <c r="E585" s="13"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="E586" s="12"/>
+      <c r="E586" s="13"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="E587" s="12"/>
+      <c r="E587" s="13"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="E588" s="12"/>
+      <c r="E588" s="13"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="E589" s="12"/>
+      <c r="E589" s="13"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="E590" s="12"/>
+      <c r="E590" s="13"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="E591" s="12"/>
+      <c r="E591" s="13"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="E592" s="12"/>
+      <c r="E592" s="13"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="E593" s="12"/>
+      <c r="E593" s="13"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="E594" s="12"/>
+      <c r="E594" s="13"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="E595" s="12"/>
+      <c r="E595" s="13"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="E596" s="12"/>
+      <c r="E596" s="13"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="E597" s="12"/>
+      <c r="E597" s="13"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="E598" s="12"/>
+      <c r="E598" s="13"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="E599" s="12"/>
+      <c r="E599" s="13"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="E600" s="12"/>
+      <c r="E600" s="13"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="E601" s="12"/>
+      <c r="E601" s="13"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="E602" s="12"/>
+      <c r="E602" s="13"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="E603" s="12"/>
+      <c r="E603" s="13"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="E604" s="12"/>
+      <c r="E604" s="13"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="E605" s="12"/>
+      <c r="E605" s="13"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="E606" s="12"/>
+      <c r="E606" s="13"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="E607" s="12"/>
+      <c r="E607" s="13"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="E608" s="12"/>
+      <c r="E608" s="13"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="E609" s="12"/>
+      <c r="E609" s="13"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="E610" s="12"/>
+      <c r="E610" s="13"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="E611" s="12"/>
+      <c r="E611" s="13"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="E612" s="12"/>
+      <c r="E612" s="13"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="E613" s="12"/>
+      <c r="E613" s="13"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="E614" s="12"/>
+      <c r="E614" s="13"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="E615" s="12"/>
+      <c r="E615" s="13"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="E616" s="12"/>
+      <c r="E616" s="13"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="E617" s="12"/>
+      <c r="E617" s="13"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="E618" s="12"/>
+      <c r="E618" s="13"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="E619" s="12"/>
+      <c r="E619" s="13"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="E620" s="12"/>
+      <c r="E620" s="13"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="E621" s="12"/>
+      <c r="E621" s="13"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="E622" s="12"/>
+      <c r="E622" s="13"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="E623" s="12"/>
+      <c r="E623" s="13"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="E624" s="12"/>
+      <c r="E624" s="13"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="E625" s="12"/>
+      <c r="E625" s="13"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="E626" s="12"/>
+      <c r="E626" s="13"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="E627" s="12"/>
+      <c r="E627" s="13"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="E628" s="12"/>
+      <c r="E628" s="13"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="E629" s="12"/>
+      <c r="E629" s="13"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="E630" s="12"/>
+      <c r="E630" s="13"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="E631" s="12"/>
+      <c r="E631" s="13"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="E632" s="12"/>
+      <c r="E632" s="13"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="E633" s="12"/>
+      <c r="E633" s="13"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="E634" s="12"/>
+      <c r="E634" s="13"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="E635" s="12"/>
+      <c r="E635" s="13"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="E636" s="12"/>
+      <c r="E636" s="13"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="E637" s="12"/>
+      <c r="E637" s="13"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="E638" s="12"/>
+      <c r="E638" s="13"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="E639" s="12"/>
+      <c r="E639" s="13"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="E640" s="12"/>
+      <c r="E640" s="13"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="E641" s="12"/>
+      <c r="E641" s="13"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="E642" s="12"/>
+      <c r="E642" s="13"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="E643" s="12"/>
+      <c r="E643" s="13"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="E644" s="12"/>
+      <c r="E644" s="13"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="E645" s="12"/>
+      <c r="E645" s="13"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="E646" s="12"/>
+      <c r="E646" s="13"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="E647" s="12"/>
+      <c r="E647" s="13"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="E648" s="12"/>
+      <c r="E648" s="13"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="E649" s="12"/>
+      <c r="E649" s="13"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="E650" s="12"/>
+      <c r="E650" s="13"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="E651" s="12"/>
+      <c r="E651" s="13"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="E652" s="12"/>
+      <c r="E652" s="13"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="E653" s="12"/>
+      <c r="E653" s="13"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="E654" s="12"/>
+      <c r="E654" s="13"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="E655" s="12"/>
+      <c r="E655" s="13"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="E656" s="12"/>
+      <c r="E656" s="13"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="E657" s="12"/>
+      <c r="E657" s="13"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="E658" s="12"/>
+      <c r="E658" s="13"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="E659" s="12"/>
+      <c r="E659" s="13"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="E660" s="12"/>
+      <c r="E660" s="13"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="E661" s="12"/>
+      <c r="E661" s="13"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="E662" s="12"/>
+      <c r="E662" s="13"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="E663" s="12"/>
+      <c r="E663" s="13"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="E664" s="12"/>
+      <c r="E664" s="13"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="E665" s="12"/>
+      <c r="E665" s="13"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="E666" s="12"/>
+      <c r="E666" s="13"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="E667" s="12"/>
+      <c r="E667" s="13"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="E668" s="12"/>
+      <c r="E668" s="13"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="E669" s="12"/>
+      <c r="E669" s="13"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="E670" s="12"/>
+      <c r="E670" s="13"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="E671" s="12"/>
+      <c r="E671" s="13"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="E672" s="12"/>
+      <c r="E672" s="13"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="E673" s="12"/>
+      <c r="E673" s="13"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="E674" s="12"/>
+      <c r="E674" s="13"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="E675" s="12"/>
+      <c r="E675" s="13"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="E676" s="12"/>
+      <c r="E676" s="13"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="E677" s="12"/>
+      <c r="E677" s="13"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="E678" s="12"/>
+      <c r="E678" s="13"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="E679" s="12"/>
+      <c r="E679" s="13"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="E680" s="12"/>
+      <c r="E680" s="13"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="E681" s="12"/>
+      <c r="E681" s="13"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="E682" s="12"/>
+      <c r="E682" s="13"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="E683" s="12"/>
+      <c r="E683" s="13"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="E684" s="12"/>
+      <c r="E684" s="13"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="E685" s="12"/>
+      <c r="E685" s="13"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="E686" s="12"/>
+      <c r="E686" s="13"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="E687" s="12"/>
+      <c r="E687" s="13"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="E688" s="12"/>
+      <c r="E688" s="13"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="E689" s="12"/>
+      <c r="E689" s="13"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="E690" s="12"/>
+      <c r="E690" s="13"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="E691" s="12"/>
+      <c r="E691" s="13"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="E692" s="12"/>
+      <c r="E692" s="13"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="E693" s="12"/>
+      <c r="E693" s="13"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="E694" s="12"/>
+      <c r="E694" s="13"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="E695" s="12"/>
+      <c r="E695" s="13"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="E696" s="12"/>
+      <c r="E696" s="13"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="E697" s="12"/>
+      <c r="E697" s="13"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="E698" s="12"/>
+      <c r="E698" s="13"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="E699" s="12"/>
+      <c r="E699" s="13"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="E700" s="12"/>
+      <c r="E700" s="13"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="E701" s="12"/>
+      <c r="E701" s="13"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="E702" s="12"/>
+      <c r="E702" s="13"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="E703" s="12"/>
+      <c r="E703" s="13"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="E704" s="12"/>
+      <c r="E704" s="13"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="E705" s="12"/>
+      <c r="E705" s="13"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="E706" s="12"/>
+      <c r="E706" s="13"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="E707" s="12"/>
+      <c r="E707" s="13"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="E708" s="12"/>
+      <c r="E708" s="13"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="E709" s="12"/>
+      <c r="E709" s="13"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="E710" s="12"/>
+      <c r="E710" s="13"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="E711" s="12"/>
+      <c r="E711" s="13"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="E712" s="12"/>
+      <c r="E712" s="13"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="E713" s="12"/>
+      <c r="E713" s="13"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="E714" s="12"/>
+      <c r="E714" s="13"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="E715" s="12"/>
+      <c r="E715" s="13"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="E716" s="12"/>
+      <c r="E716" s="13"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="E717" s="12"/>
+      <c r="E717" s="13"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="E718" s="12"/>
+      <c r="E718" s="13"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="E719" s="12"/>
+      <c r="E719" s="13"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="E720" s="12"/>
+      <c r="E720" s="13"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="E721" s="12"/>
+      <c r="E721" s="13"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="E722" s="12"/>
+      <c r="E722" s="13"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="E723" s="12"/>
+      <c r="E723" s="13"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="E724" s="12"/>
+      <c r="E724" s="13"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="E725" s="12"/>
+      <c r="E725" s="13"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="E726" s="12"/>
+      <c r="E726" s="13"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="E727" s="12"/>
+      <c r="E727" s="13"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="E728" s="12"/>
+      <c r="E728" s="13"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="E729" s="12"/>
+      <c r="E729" s="13"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="E730" s="12"/>
+      <c r="E730" s="13"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="E731" s="12"/>
+      <c r="E731" s="13"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="E732" s="12"/>
+      <c r="E732" s="13"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="E733" s="12"/>
+      <c r="E733" s="13"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="E734" s="12"/>
+      <c r="E734" s="13"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="E735" s="12"/>
+      <c r="E735" s="13"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="E736" s="12"/>
+      <c r="E736" s="13"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="E737" s="12"/>
+      <c r="E737" s="13"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="E738" s="12"/>
+      <c r="E738" s="13"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="E739" s="12"/>
+      <c r="E739" s="13"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="E740" s="12"/>
+      <c r="E740" s="13"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="E741" s="12"/>
+      <c r="E741" s="13"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="E742" s="12"/>
+      <c r="E742" s="13"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="E743" s="12"/>
+      <c r="E743" s="13"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="E744" s="12"/>
+      <c r="E744" s="13"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="E745" s="12"/>
+      <c r="E745" s="13"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="E746" s="12"/>
+      <c r="E746" s="13"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="E747" s="12"/>
+      <c r="E747" s="13"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="E748" s="12"/>
+      <c r="E748" s="13"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="E749" s="12"/>
+      <c r="E749" s="13"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="E750" s="12"/>
+      <c r="E750" s="13"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="E751" s="12"/>
+      <c r="E751" s="13"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="E752" s="12"/>
+      <c r="E752" s="13"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="E753" s="12"/>
+      <c r="E753" s="13"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="E754" s="12"/>
+      <c r="E754" s="13"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="E755" s="12"/>
+      <c r="E755" s="13"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="E756" s="12"/>
+      <c r="E756" s="13"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="E757" s="12"/>
+      <c r="E757" s="13"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="E758" s="12"/>
+      <c r="E758" s="13"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="E759" s="12"/>
+      <c r="E759" s="13"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="E760" s="12"/>
+      <c r="E760" s="13"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="E761" s="12"/>
+      <c r="E761" s="13"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="E762" s="12"/>
+      <c r="E762" s="13"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="E763" s="12"/>
+      <c r="E763" s="13"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="E764" s="12"/>
+      <c r="E764" s="13"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="E765" s="12"/>
+      <c r="E765" s="13"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="E766" s="12"/>
+      <c r="E766" s="13"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="E767" s="12"/>
+      <c r="E767" s="13"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="E768" s="12"/>
+      <c r="E768" s="13"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="E769" s="12"/>
+      <c r="E769" s="13"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="E770" s="12"/>
+      <c r="E770" s="13"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="E771" s="12"/>
+      <c r="E771" s="13"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="E772" s="12"/>
+      <c r="E772" s="13"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="E773" s="12"/>
+      <c r="E773" s="13"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="E774" s="12"/>
+      <c r="E774" s="13"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="E775" s="12"/>
+      <c r="E775" s="13"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="E776" s="12"/>
+      <c r="E776" s="13"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="E777" s="12"/>
+      <c r="E777" s="13"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="E778" s="12"/>
+      <c r="E778" s="13"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="E779" s="12"/>
+      <c r="E779" s="13"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="E780" s="12"/>
+      <c r="E780" s="13"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="E781" s="12"/>
+      <c r="E781" s="13"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="E782" s="12"/>
+      <c r="E782" s="13"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="E783" s="12"/>
+      <c r="E783" s="13"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="E784" s="12"/>
+      <c r="E784" s="13"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="E785" s="12"/>
+      <c r="E785" s="13"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="E786" s="12"/>
+      <c r="E786" s="13"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="E787" s="12"/>
+      <c r="E787" s="13"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="E788" s="12"/>
+      <c r="E788" s="13"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="E789" s="12"/>
+      <c r="E789" s="13"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="E790" s="12"/>
+      <c r="E790" s="13"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="E791" s="12"/>
+      <c r="E791" s="13"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="E792" s="12"/>
+      <c r="E792" s="13"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="E793" s="12"/>
+      <c r="E793" s="13"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="E794" s="12"/>
+      <c r="E794" s="13"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="E795" s="12"/>
+      <c r="E795" s="13"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="E796" s="12"/>
+      <c r="E796" s="13"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="E797" s="12"/>
+      <c r="E797" s="13"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="E798" s="12"/>
+      <c r="E798" s="13"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="E799" s="12"/>
+      <c r="E799" s="13"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="E800" s="12"/>
+      <c r="E800" s="13"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="E801" s="12"/>
+      <c r="E801" s="13"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="E802" s="12"/>
+      <c r="E802" s="13"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="E803" s="12"/>
+      <c r="E803" s="13"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="E804" s="12"/>
+      <c r="E804" s="13"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="E805" s="12"/>
+      <c r="E805" s="13"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="E806" s="12"/>
+      <c r="E806" s="13"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="E807" s="12"/>
+      <c r="E807" s="13"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="E808" s="12"/>
+      <c r="E808" s="13"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="E809" s="12"/>
+      <c r="E809" s="13"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="E810" s="12"/>
+      <c r="E810" s="13"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="E811" s="12"/>
+      <c r="E811" s="13"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="E812" s="12"/>
+      <c r="E812" s="13"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="E813" s="12"/>
+      <c r="E813" s="13"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="E814" s="12"/>
+      <c r="E814" s="13"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="E815" s="12"/>
+      <c r="E815" s="13"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="E816" s="12"/>
+      <c r="E816" s="13"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="E817" s="12"/>
+      <c r="E817" s="13"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="E818" s="12"/>
+      <c r="E818" s="13"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="E819" s="12"/>
+      <c r="E819" s="13"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="E820" s="12"/>
+      <c r="E820" s="13"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="E821" s="12"/>
+      <c r="E821" s="13"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="E822" s="12"/>
+      <c r="E822" s="13"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="E823" s="12"/>
+      <c r="E823" s="13"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="E824" s="12"/>
+      <c r="E824" s="13"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="E825" s="12"/>
+      <c r="E825" s="13"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="E826" s="12"/>
+      <c r="E826" s="13"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="E827" s="12"/>
+      <c r="E827" s="13"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="E828" s="12"/>
+      <c r="E828" s="13"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="E829" s="12"/>
+      <c r="E829" s="13"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="E830" s="12"/>
+      <c r="E830" s="13"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="E831" s="12"/>
+      <c r="E831" s="13"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="E832" s="12"/>
+      <c r="E832" s="13"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="E833" s="12"/>
+      <c r="E833" s="13"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="E834" s="12"/>
+      <c r="E834" s="13"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="E835" s="12"/>
+      <c r="E835" s="13"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="E836" s="12"/>
+      <c r="E836" s="13"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="E837" s="12"/>
+      <c r="E837" s="13"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="E838" s="12"/>
+      <c r="E838" s="13"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="E839" s="12"/>
+      <c r="E839" s="13"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="E840" s="12"/>
+      <c r="E840" s="13"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="E841" s="12"/>
+      <c r="E841" s="13"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="E842" s="12"/>
+      <c r="E842" s="13"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="E843" s="12"/>
+      <c r="E843" s="13"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="E844" s="12"/>
+      <c r="E844" s="13"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="E845" s="12"/>
+      <c r="E845" s="13"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="E846" s="12"/>
+      <c r="E846" s="13"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="E847" s="12"/>
+      <c r="E847" s="13"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="E848" s="12"/>
+      <c r="E848" s="13"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="E849" s="12"/>
+      <c r="E849" s="13"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="E850" s="12"/>
+      <c r="E850" s="13"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="E851" s="12"/>
+      <c r="E851" s="13"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="E852" s="12"/>
+      <c r="E852" s="13"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="E853" s="12"/>
+      <c r="E853" s="13"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="E854" s="12"/>
+      <c r="E854" s="13"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="E855" s="12"/>
+      <c r="E855" s="13"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="E856" s="12"/>
+      <c r="E856" s="13"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="E857" s="12"/>
+      <c r="E857" s="13"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="E858" s="12"/>
+      <c r="E858" s="13"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="E859" s="12"/>
+      <c r="E859" s="13"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="E860" s="12"/>
+      <c r="E860" s="13"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="E861" s="12"/>
+      <c r="E861" s="13"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="E862" s="12"/>
+      <c r="E862" s="13"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="E863" s="12"/>
+      <c r="E863" s="13"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="E864" s="12"/>
+      <c r="E864" s="13"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="E865" s="12"/>
+      <c r="E865" s="13"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="E866" s="12"/>
+      <c r="E866" s="13"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="E867" s="12"/>
+      <c r="E867" s="13"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="E868" s="12"/>
+      <c r="E868" s="13"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="E869" s="12"/>
+      <c r="E869" s="13"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="E870" s="12"/>
+      <c r="E870" s="13"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="E871" s="12"/>
+      <c r="E871" s="13"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="E872" s="12"/>
+      <c r="E872" s="13"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="E873" s="12"/>
+      <c r="E873" s="13"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="E874" s="12"/>
+      <c r="E874" s="13"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="E875" s="12"/>
+      <c r="E875" s="13"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="E876" s="12"/>
+      <c r="E876" s="13"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="E877" s="12"/>
+      <c r="E877" s="13"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="E878" s="12"/>
+      <c r="E878" s="13"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="E879" s="12"/>
+      <c r="E879" s="13"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="E880" s="12"/>
+      <c r="E880" s="13"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="E881" s="12"/>
+      <c r="E881" s="13"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="E882" s="12"/>
+      <c r="E882" s="13"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="E883" s="12"/>
+      <c r="E883" s="13"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="E884" s="12"/>
+      <c r="E884" s="13"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="E885" s="12"/>
+      <c r="E885" s="13"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="E886" s="12"/>
+      <c r="E886" s="13"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="E887" s="12"/>
+      <c r="E887" s="13"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="E888" s="12"/>
+      <c r="E888" s="13"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="E889" s="12"/>
+      <c r="E889" s="13"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="E890" s="12"/>
+      <c r="E890" s="13"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="E891" s="12"/>
+      <c r="E891" s="13"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="E892" s="12"/>
+      <c r="E892" s="13"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="E893" s="12"/>
+      <c r="E893" s="13"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="E894" s="12"/>
+      <c r="E894" s="13"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="E895" s="12"/>
+      <c r="E895" s="13"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="E896" s="12"/>
+      <c r="E896" s="13"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="E897" s="12"/>
+      <c r="E897" s="13"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="E898" s="12"/>
+      <c r="E898" s="13"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="E899" s="12"/>
+      <c r="E899" s="13"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="E900" s="12"/>
+      <c r="E900" s="13"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="E901" s="12"/>
+      <c r="E901" s="13"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="E902" s="12"/>
+      <c r="E902" s="13"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="E903" s="12"/>
+      <c r="E903" s="13"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="E904" s="12"/>
+      <c r="E904" s="13"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="E905" s="12"/>
+      <c r="E905" s="13"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="E906" s="12"/>
+      <c r="E906" s="13"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="E907" s="12"/>
+      <c r="E907" s="13"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="E908" s="12"/>
+      <c r="E908" s="13"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="E909" s="12"/>
+      <c r="E909" s="13"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="E910" s="12"/>
+      <c r="E910" s="13"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="E911" s="12"/>
+      <c r="E911" s="13"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="E912" s="12"/>
+      <c r="E912" s="13"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="E913" s="12"/>
+      <c r="E913" s="13"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="E914" s="12"/>
+      <c r="E914" s="13"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="E915" s="12"/>
+      <c r="E915" s="13"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="E916" s="12"/>
+      <c r="E916" s="13"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="E917" s="12"/>
+      <c r="E917" s="13"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="E918" s="12"/>
+      <c r="E918" s="13"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="E919" s="12"/>
+      <c r="E919" s="13"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="E920" s="12"/>
+      <c r="E920" s="13"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="E921" s="12"/>
+      <c r="E921" s="13"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="E922" s="12"/>
+      <c r="E922" s="13"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="E923" s="12"/>
+      <c r="E923" s="13"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="E924" s="12"/>
+      <c r="E924" s="13"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="E925" s="12"/>
+      <c r="E925" s="13"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="E926" s="12"/>
+      <c r="E926" s="13"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="E927" s="12"/>
+      <c r="E927" s="13"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="E928" s="12"/>
+      <c r="E928" s="13"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="E929" s="12"/>
+      <c r="E929" s="13"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="E930" s="12"/>
+      <c r="E930" s="13"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="E931" s="12"/>
+      <c r="E931" s="13"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="E932" s="12"/>
+      <c r="E932" s="13"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="E933" s="12"/>
+      <c r="E933" s="13"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="E934" s="12"/>
+      <c r="E934" s="13"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="E935" s="12"/>
+      <c r="E935" s="13"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="E936" s="12"/>
+      <c r="E936" s="13"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="E937" s="12"/>
+      <c r="E937" s="13"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="E938" s="12"/>
+      <c r="E938" s="13"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="E939" s="12"/>
+      <c r="E939" s="13"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="E940" s="12"/>
+      <c r="E940" s="13"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="E941" s="12"/>
+      <c r="E941" s="13"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="E942" s="12"/>
+      <c r="E942" s="13"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="E943" s="12"/>
+      <c r="E943" s="13"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="E944" s="12"/>
+      <c r="E944" s="13"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="E945" s="12"/>
+      <c r="E945" s="13"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="E946" s="12"/>
+      <c r="E946" s="13"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="E947" s="12"/>
+      <c r="E947" s="13"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="E948" s="12"/>
+      <c r="E948" s="13"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="E949" s="12"/>
+      <c r="E949" s="13"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="E950" s="12"/>
+      <c r="E950" s="13"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="E951" s="12"/>
+      <c r="E951" s="13"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="E952" s="12"/>
+      <c r="E952" s="13"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="E953" s="12"/>
+      <c r="E953" s="13"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="E954" s="12"/>
+      <c r="E954" s="13"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="E955" s="12"/>
+      <c r="E955" s="13"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="E956" s="12"/>
+      <c r="E956" s="13"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="E957" s="12"/>
+      <c r="E957" s="13"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="E958" s="12"/>
+      <c r="E958" s="13"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="E959" s="12"/>
+      <c r="E959" s="13"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="E960" s="12"/>
+      <c r="E960" s="13"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="E961" s="12"/>
+      <c r="E961" s="13"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="E962" s="12"/>
+      <c r="E962" s="13"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="E963" s="12"/>
+      <c r="E963" s="13"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="E964" s="12"/>
+      <c r="E964" s="13"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="E965" s="12"/>
+      <c r="E965" s="13"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="E966" s="12"/>
+      <c r="E966" s="13"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="E967" s="12"/>
+      <c r="E967" s="13"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="E968" s="12"/>
+      <c r="E968" s="13"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="E969" s="12"/>
+      <c r="E969" s="13"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="E970" s="12"/>
+      <c r="E970" s="13"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="E971" s="12"/>
+      <c r="E971" s="13"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="E972" s="12"/>
+      <c r="E972" s="13"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="E973" s="12"/>
+      <c r="E973" s="13"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="E974" s="12"/>
+      <c r="E974" s="13"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="E975" s="12"/>
+      <c r="E975" s="13"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="E976" s="12"/>
+      <c r="E976" s="13"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="E977" s="12"/>
+      <c r="E977" s="13"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="E978" s="12"/>
+      <c r="E978" s="13"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="E979" s="12"/>
+      <c r="E979" s="13"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="E980" s="12"/>
+      <c r="E980" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$20"/>
+  <autoFilter ref="$A$1:$F$30"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4060,309 +4313,199 @@
   </cols>
   <sheetData>
     <row r="1" ht="42.0" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>67</v>
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>68</v>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>70</v>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>72</v>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>74</v>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="17"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4399,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4409,132 +4552,132 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="23" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
